--- a/31 - Gen VIII - SWSH Collection/000 - Hunting.xlsx
+++ b/31 - Gen VIII - SWSH Collection/000 - Hunting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\RoCs-PC\31 - Gen VIII - SWSH Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="13_ncr:1_{C76A387B-0C5A-47D0-B3D9-5D68A762B8D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{362BE717-888C-4362-A67F-337321AA7FFE}"/>
+  <xr:revisionPtr revIDLastSave="423" documentId="13_ncr:1_{C76A387B-0C5A-47D0-B3D9-5D68A762B8D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8C73A8EF-1EB6-4BA2-BDBE-0B29D92D5524}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{317F0733-B8F8-413E-9D08-B236975643E1}"/>
+    <workbookView xWindow="38280" yWindow="2760" windowWidth="29040" windowHeight="15840" xr2:uid="{317F0733-B8F8-413E-9D08-B236975643E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sword" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="693">
   <si>
     <t>Pokemon</t>
   </si>
@@ -1609,9 +1609,6 @@
     <t>Motostoke Riverbank [Fog] (40%)</t>
   </si>
   <si>
-    <t>Dusty Bowl [Flying] (2%)</t>
-  </si>
-  <si>
     <t>Motostoke Riverbank (5%)</t>
   </si>
   <si>
@@ -2081,6 +2078,39 @@
   </si>
   <si>
     <t>Route 9 [Circhester Bay] [Surfing]</t>
+  </si>
+  <si>
+    <t>Dusty Bowl [Fog] [Flying] (2%)</t>
+  </si>
+  <si>
+    <t>Evolved / Raid / Motostoke Riverbank</t>
+  </si>
+  <si>
+    <t>Evolved / Raid / Giant's Mirror</t>
+  </si>
+  <si>
+    <t>Evolved / Raid / Giant's Cap</t>
+  </si>
+  <si>
+    <t>Evolved / Raid / Wild Area</t>
+  </si>
+  <si>
+    <t>Evolved / Raid / Dappled Grove</t>
+  </si>
+  <si>
+    <t>Evolved / Raid / Dusty Bowl</t>
+  </si>
+  <si>
+    <t>Evolved / Raid / South Lake Miloch</t>
+  </si>
+  <si>
+    <t>Evolved / Raid / Hammerlocke Hills</t>
+  </si>
+  <si>
+    <t>Breed / Raid / Wild Area</t>
+  </si>
+  <si>
+    <t>Evolved / Raid / Bridge Field</t>
   </si>
 </sst>
 </file>
@@ -2186,12 +2216,8 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A70110D2-3A9A-4AB3-B8DD-5EF3FE6692DF}" name="Table1" displayName="Table1" ref="A1:D408" totalsRowShown="0">
-  <autoFilter ref="A1:D408" xr:uid="{B8B34BC1-B866-4376-8232-AE6655C1A263}">
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D400">
+  <autoFilter ref="A1:D408" xr:uid="{B8B34BC1-B866-4376-8232-AE6655C1A263}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D408">
     <sortCondition ref="A1:A408"/>
   </sortState>
   <tableColumns count="4">
@@ -2525,7 +2551,7 @@
     <col min="1" max="1" width="6.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -2539,13 +2565,13 @@
         <v>396</v>
       </c>
       <c r="D1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F1" t="s">
         <v>673</v>
       </c>
-      <c r="F1" t="s">
-        <v>674</v>
-      </c>
       <c r="G1" s="30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
@@ -2563,10 +2589,10 @@
         <v>402</v>
       </c>
       <c r="F2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
@@ -2595,7 +2621,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2606,7 +2632,7 @@
         <v>402</v>
       </c>
       <c r="D5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2664,7 +2690,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2675,10 +2701,10 @@
         <v>404</v>
       </c>
       <c r="D11" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2689,10 +2715,10 @@
         <v>405</v>
       </c>
       <c r="D12" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2703,10 +2729,10 @@
         <v>417</v>
       </c>
       <c r="D13" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2714,13 +2740,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D14" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2731,10 +2757,10 @@
         <v>406</v>
       </c>
       <c r="D15" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2745,10 +2771,10 @@
         <v>407</v>
       </c>
       <c r="D16" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2759,10 +2785,10 @@
         <v>418</v>
       </c>
       <c r="D17" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2770,13 +2796,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D18" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2784,13 +2810,13 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D19" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2801,10 +2827,10 @@
         <v>408</v>
       </c>
       <c r="D20" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2815,10 +2841,10 @@
         <v>409</v>
       </c>
       <c r="D21" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2829,7 +2855,7 @@
         <v>399</v>
       </c>
       <c r="D22" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2842,8 +2868,11 @@
       <c r="C23" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2854,10 +2883,10 @@
         <v>419</v>
       </c>
       <c r="D24" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2868,24 +2897,24 @@
         <v>398</v>
       </c>
       <c r="D25" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D26" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2896,7 +2925,7 @@
         <v>411</v>
       </c>
       <c r="D27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2909,8 +2938,11 @@
       <c r="C28" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2921,10 +2953,10 @@
         <v>413</v>
       </c>
       <c r="D29" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2935,10 +2967,10 @@
         <v>401</v>
       </c>
       <c r="D30" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2949,10 +2981,10 @@
         <v>414</v>
       </c>
       <c r="D31" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2963,10 +2995,10 @@
         <v>415</v>
       </c>
       <c r="D32" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2977,10 +3009,10 @@
         <v>416</v>
       </c>
       <c r="D33" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2988,13 +3020,13 @@
         <v>322</v>
       </c>
       <c r="C34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D34" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3005,7 +3037,7 @@
         <v>400</v>
       </c>
       <c r="D35" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -3016,7 +3048,10 @@
         <v>324</v>
       </c>
       <c r="C36" t="s">
-        <v>579</v>
+        <v>578</v>
+      </c>
+      <c r="D36" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -3052,7 +3087,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3060,13 +3095,13 @@
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D40" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3077,7 +3112,7 @@
         <v>420</v>
       </c>
       <c r="D41" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -3088,10 +3123,13 @@
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>687</v>
+      </c>
+      <c r="D42" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3102,10 +3140,10 @@
         <v>405</v>
       </c>
       <c r="D43" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3113,13 +3151,13 @@
         <v>326</v>
       </c>
       <c r="C44" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D44" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3130,10 +3168,10 @@
         <v>422</v>
       </c>
       <c r="D45" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3144,10 +3182,10 @@
         <v>423</v>
       </c>
       <c r="D46" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3158,10 +3196,10 @@
         <v>424</v>
       </c>
       <c r="D47" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3169,13 +3207,13 @@
         <v>328</v>
       </c>
       <c r="C48" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D48" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3186,10 +3224,10 @@
         <v>425</v>
       </c>
       <c r="D49" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3197,13 +3235,13 @@
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D50" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3214,7 +3252,7 @@
         <v>426</v>
       </c>
       <c r="D51" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -3225,10 +3263,13 @@
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+      <c r="D52" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3239,7 +3280,7 @@
         <v>428</v>
       </c>
       <c r="D53" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -3250,10 +3291,13 @@
         <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+      <c r="D54" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3261,13 +3305,13 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D55" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3278,7 +3322,7 @@
         <v>429</v>
       </c>
       <c r="D56" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3291,6 +3335,9 @@
       <c r="C57" t="s">
         <v>430</v>
       </c>
+      <c r="D57" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
@@ -3300,7 +3347,10 @@
         <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>661</v>
+        <v>660</v>
+      </c>
+      <c r="D58" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3311,10 +3361,10 @@
         <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3322,10 +3372,10 @@
         <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D60" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -3336,7 +3386,10 @@
         <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>586</v>
+        <v>585</v>
+      </c>
+      <c r="D61" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -3347,10 +3400,10 @@
         <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3361,10 +3414,10 @@
         <v>431</v>
       </c>
       <c r="D63" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3375,10 +3428,10 @@
         <v>432</v>
       </c>
       <c r="D64" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3386,13 +3439,13 @@
         <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D65" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3403,10 +3456,10 @@
         <v>414</v>
       </c>
       <c r="D66" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3417,7 +3470,7 @@
         <v>433</v>
       </c>
       <c r="D67" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3430,8 +3483,11 @@
       <c r="C68" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3442,7 +3498,7 @@
         <v>435</v>
       </c>
       <c r="D69" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3455,6 +3511,9 @@
       <c r="C70" t="s">
         <v>436</v>
       </c>
+      <c r="D70" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -3466,6 +3525,9 @@
       <c r="C71" t="s">
         <v>437</v>
       </c>
+      <c r="D71" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
@@ -3475,10 +3537,10 @@
         <v>43</v>
       </c>
       <c r="C72" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3489,10 +3551,10 @@
         <v>438</v>
       </c>
       <c r="D73" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3503,54 +3565,63 @@
         <v>439</v>
       </c>
       <c r="D74" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C75" t="s">
-        <v>588</v>
+        <v>440</v>
+      </c>
+      <c r="D75" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C76" t="s">
-        <v>589</v>
+        <v>587</v>
+      </c>
+      <c r="D76" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>661</v>
+        <v>588</v>
+      </c>
+      <c r="D77" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C78" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3558,13 +3629,13 @@
         <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D79" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3575,57 +3646,63 @@
         <v>441</v>
       </c>
       <c r="D80" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>442</v>
+        <v>440</v>
+      </c>
+      <c r="D81" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C82" t="s">
-        <v>443</v>
+        <v>660</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C83" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="D83" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C84" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D84" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3633,41 +3710,41 @@
         <v>56</v>
       </c>
       <c r="C85" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D85" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C86" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D86" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C87" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D87" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3678,10 +3755,10 @@
         <v>446</v>
       </c>
       <c r="D88" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3692,71 +3769,80 @@
         <v>447</v>
       </c>
       <c r="D89" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C90" t="s">
-        <v>661</v>
+        <v>448</v>
+      </c>
+      <c r="D90" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C91" t="s">
-        <v>450</v>
+        <v>449</v>
+      </c>
+      <c r="D91" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" t="s">
+        <v>686</v>
+      </c>
+      <c r="D92" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93" t="s">
+        <v>450</v>
+      </c>
+      <c r="D93" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B94" t="s">
         <v>65</v>
       </c>
-      <c r="C92" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>95</v>
-      </c>
-      <c r="B93" t="s">
-        <v>67</v>
-      </c>
-      <c r="C93" t="s">
-        <v>452</v>
-      </c>
-      <c r="D93" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>98</v>
-      </c>
-      <c r="B94" t="s">
-        <v>70</v>
-      </c>
       <c r="C94" t="s">
-        <v>454</v>
+        <v>591</v>
       </c>
       <c r="D94" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3767,102 +3853,108 @@
         <v>451</v>
       </c>
       <c r="D95" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" t="s">
+        <v>452</v>
+      </c>
+      <c r="D96" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>68</v>
+      </c>
+      <c r="C97" t="s">
+        <v>453</v>
+      </c>
+      <c r="D97" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" t="s">
+        <v>592</v>
+      </c>
+      <c r="D98" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99" t="s">
+        <v>454</v>
+      </c>
+      <c r="D99" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B100" t="s">
         <v>71</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C100" t="s">
         <v>455</v>
       </c>
-      <c r="D96" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>100</v>
-      </c>
-      <c r="B97" t="s">
-        <v>72</v>
-      </c>
-      <c r="C97" t="s">
-        <v>456</v>
-      </c>
-      <c r="D97" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>101</v>
-      </c>
-      <c r="B98" t="s">
-        <v>73</v>
-      </c>
-      <c r="C98" t="s">
-        <v>421</v>
-      </c>
-      <c r="D98" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>103</v>
-      </c>
-      <c r="B99" t="s">
-        <v>75</v>
-      </c>
-      <c r="C99" t="s">
-        <v>457</v>
-      </c>
-      <c r="D99" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>105</v>
-      </c>
-      <c r="B100" t="s">
-        <v>77</v>
-      </c>
-      <c r="C100" t="s">
-        <v>458</v>
-      </c>
       <c r="D100" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C101" t="s">
-        <v>661</v>
+        <v>456</v>
+      </c>
+      <c r="D101" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C102" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+      <c r="D102" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3873,21 +3965,24 @@
         <v>454</v>
       </c>
       <c r="D103" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C104" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+      <c r="D104" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3895,35 +3990,38 @@
         <v>76</v>
       </c>
       <c r="C105" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D105" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C106" t="s">
-        <v>461</v>
+        <v>458</v>
+      </c>
+      <c r="D106" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C107" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3934,52 +4032,49 @@
         <v>459</v>
       </c>
       <c r="D108" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C109" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D109" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C110" t="s">
-        <v>462</v>
-      </c>
-      <c r="D110" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C111" t="s">
-        <v>661</v>
+        <v>461</v>
       </c>
       <c r="D111" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3990,21 +4085,24 @@
         <v>462</v>
       </c>
       <c r="D112" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C113" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+      <c r="D113" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -4015,160 +4113,175 @@
         <v>463</v>
       </c>
       <c r="D114" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C115" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D115" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C116" t="s">
-        <v>466</v>
+        <v>464</v>
+      </c>
+      <c r="D116" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C117" t="s">
-        <v>661</v>
+        <v>462</v>
+      </c>
+      <c r="D117" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C118" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+      <c r="D118" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C119" t="s">
-        <v>661</v>
+        <v>465</v>
       </c>
       <c r="D119" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C120" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D120" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C121" t="s">
-        <v>467</v>
+        <v>466</v>
+      </c>
+      <c r="D121" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C122" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C123" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+      <c r="D123" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C124" t="s">
-        <v>605</v>
+        <v>660</v>
       </c>
       <c r="D124" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C125" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D125" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C126" t="s">
-        <v>607</v>
+        <v>467</v>
       </c>
       <c r="D126" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -4179,10 +4292,10 @@
         <v>468</v>
       </c>
       <c r="D127" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -4190,13 +4303,13 @@
         <v>330</v>
       </c>
       <c r="C128" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D128" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -4204,24 +4317,24 @@
         <v>98</v>
       </c>
       <c r="C129" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D129" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C130" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -4232,24 +4345,24 @@
         <v>469</v>
       </c>
       <c r="D131" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C132" t="s">
-        <v>472</v>
+        <v>603</v>
       </c>
       <c r="D132" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -4260,35 +4373,38 @@
         <v>470</v>
       </c>
       <c r="D133" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C134" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+      <c r="D134" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C135" t="s">
-        <v>473</v>
+        <v>605</v>
       </c>
       <c r="D135" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -4299,35 +4415,38 @@
         <v>471</v>
       </c>
       <c r="D136" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C137" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D137" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C138" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+      <c r="D138" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -4338,74 +4457,80 @@
         <v>458</v>
       </c>
       <c r="D139" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>474</v>
+        <v>109</v>
       </c>
       <c r="C140" t="s">
-        <v>610</v>
+        <v>472</v>
       </c>
       <c r="D140" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C141" t="s">
-        <v>403</v>
+        <v>684</v>
       </c>
       <c r="D141" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C142" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D142" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C143" t="s">
-        <v>611</v>
+        <v>607</v>
+      </c>
+      <c r="D143" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C144" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+      <c r="D144" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -4413,24 +4538,27 @@
         <v>114</v>
       </c>
       <c r="C145" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D145" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>122</v>
+        <v>474</v>
       </c>
       <c r="C146" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+      <c r="D146" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -4441,24 +4569,24 @@
         <v>475</v>
       </c>
       <c r="D147" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C148" t="s">
-        <v>480</v>
+        <v>403</v>
       </c>
       <c r="D148" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -4469,21 +4597,24 @@
         <v>476</v>
       </c>
       <c r="D149" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C150" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+      <c r="D150" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4494,43 +4625,49 @@
         <v>478</v>
       </c>
       <c r="D151" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>331</v>
+        <v>120</v>
       </c>
       <c r="C152" t="s">
-        <v>614</v>
+        <v>610</v>
+      </c>
+      <c r="D152" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>332</v>
+        <v>121</v>
       </c>
       <c r="C153" t="s">
-        <v>661</v>
+        <v>611</v>
+      </c>
+      <c r="D153" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>334</v>
+        <v>122</v>
       </c>
       <c r="C154" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4541,10 +4678,10 @@
         <v>479</v>
       </c>
       <c r="D155" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -4552,27 +4689,27 @@
         <v>124</v>
       </c>
       <c r="C156" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D156" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>335</v>
+        <v>125</v>
       </c>
       <c r="C157" t="s">
-        <v>615</v>
+        <v>480</v>
       </c>
       <c r="D157" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4583,43 +4720,49 @@
         <v>481</v>
       </c>
       <c r="D158" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C159" t="s">
-        <v>487</v>
+        <v>482</v>
+      </c>
+      <c r="D159" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>134</v>
+        <v>331</v>
       </c>
       <c r="C160" t="s">
-        <v>661</v>
+        <v>613</v>
+      </c>
+      <c r="D160" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>137</v>
+        <v>332</v>
       </c>
       <c r="C161" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4630,32 +4773,38 @@
         <v>483</v>
       </c>
       <c r="D162" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>139</v>
+        <v>334</v>
       </c>
       <c r="C163" t="s">
-        <v>661</v>
+        <v>484</v>
+      </c>
+      <c r="D163" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>141</v>
+        <v>335</v>
       </c>
       <c r="C164" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+      <c r="D164" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4666,10 +4815,10 @@
         <v>485</v>
       </c>
       <c r="D165" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4680,10 +4829,10 @@
         <v>486</v>
       </c>
       <c r="D166" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4694,24 +4843,24 @@
         <v>485</v>
       </c>
       <c r="D167" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C168" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="D168" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4722,10 +4871,10 @@
         <v>488</v>
       </c>
       <c r="D169" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4736,21 +4885,21 @@
         <v>439</v>
       </c>
       <c r="D170" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C171" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4761,10 +4910,10 @@
         <v>489</v>
       </c>
       <c r="D172" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4775,24 +4924,24 @@
         <v>441</v>
       </c>
       <c r="D173" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>337</v>
+        <v>137</v>
       </c>
       <c r="C174" t="s">
-        <v>494</v>
+        <v>683</v>
       </c>
       <c r="D174" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4803,21 +4952,21 @@
         <v>490</v>
       </c>
       <c r="D175" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C176" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4828,46 +4977,52 @@
         <v>491</v>
       </c>
       <c r="D177" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>340</v>
+        <v>141</v>
       </c>
       <c r="C178" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="D178" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C179" t="s">
-        <v>497</v>
+        <v>615</v>
       </c>
       <c r="D179" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C180" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+      <c r="D180" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4878,21 +5033,24 @@
         <v>493</v>
       </c>
       <c r="D181" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>147</v>
+        <v>337</v>
       </c>
       <c r="C182" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="D182" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4903,10 +5061,10 @@
         <v>495</v>
       </c>
       <c r="D183" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4917,21 +5075,21 @@
         <v>496</v>
       </c>
       <c r="D184" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>148</v>
-      </c>
-      <c r="C185" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="C185" s="29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4939,68 +5097,80 @@
         <v>339</v>
       </c>
       <c r="C186" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D186" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="C187" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C188" t="s">
-        <v>662</v>
+        <v>497</v>
+      </c>
+      <c r="D188" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>153</v>
-      </c>
-      <c r="C189" t="s">
-        <v>661</v>
+        <v>146</v>
+      </c>
+      <c r="C189" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="D189" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C190" t="s">
-        <v>500</v>
+        <v>618</v>
+      </c>
+      <c r="D190" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>155</v>
-      </c>
-      <c r="C191" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="C191" s="29" t="s">
+        <v>619</v>
+      </c>
+      <c r="D191" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -5011,32 +5181,35 @@
         <v>498</v>
       </c>
       <c r="D192" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>156</v>
-      </c>
-      <c r="C193" t="s">
-        <v>661</v>
+        <v>150</v>
+      </c>
+      <c r="C193" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="D193" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>157</v>
-      </c>
-      <c r="C194" t="s">
+        <v>151</v>
+      </c>
+      <c r="C194" s="29" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -5047,123 +5220,129 @@
         <v>499</v>
       </c>
       <c r="D195" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>158</v>
-      </c>
-      <c r="C196" t="s">
-        <v>661</v>
+        <v>153</v>
+      </c>
+      <c r="C196" s="29" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>159</v>
-      </c>
-      <c r="C197" t="s">
-        <v>661</v>
+        <v>154</v>
+      </c>
+      <c r="C197" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="D197" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C198" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C199" t="s">
-        <v>661</v>
-      </c>
-      <c r="D199" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C200" t="s">
-        <v>661</v>
+        <v>686</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="C201" t="s">
-        <v>661</v>
+        <v>686</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>343</v>
+        <v>159</v>
       </c>
       <c r="C202" t="s">
-        <v>403</v>
+        <v>686</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C203" t="s">
-        <v>623</v>
+        <v>686</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C204" t="s">
-        <v>661</v>
+        <v>660</v>
+      </c>
+      <c r="D204" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C205" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>686</v>
+      </c>
+      <c r="D205" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -5171,38 +5350,35 @@
         <v>341</v>
       </c>
       <c r="C206" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D206" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>168</v>
+        <v>342</v>
       </c>
       <c r="C207" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>170</v>
+        <v>343</v>
       </c>
       <c r="C208" t="s">
-        <v>502</v>
-      </c>
-      <c r="D208" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -5210,24 +5386,27 @@
         <v>163</v>
       </c>
       <c r="C209" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D209" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C210" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+      <c r="D210" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -5238,46 +5417,43 @@
         <v>501</v>
       </c>
       <c r="D211" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>344</v>
+        <v>166</v>
       </c>
       <c r="C212" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C213" t="s">
-        <v>625</v>
-      </c>
-      <c r="D213" t="s">
-        <v>679</v>
+        <v>427</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C214" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -5285,35 +5461,38 @@
         <v>169</v>
       </c>
       <c r="C215" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D215" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C216" t="s">
-        <v>427</v>
+        <v>502</v>
+      </c>
+      <c r="D216" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C217" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -5324,10 +5503,10 @@
         <v>503</v>
       </c>
       <c r="D218" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -5338,24 +5517,21 @@
         <v>504</v>
       </c>
       <c r="D219" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>181</v>
+        <v>344</v>
       </c>
       <c r="C220" t="s">
-        <v>628</v>
-      </c>
-      <c r="D220" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -5363,32 +5539,32 @@
         <v>173</v>
       </c>
       <c r="C221" t="s">
+        <v>623</v>
+      </c>
+      <c r="D221" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>174</v>
+      </c>
+      <c r="C222" t="s">
         <v>624</v>
       </c>
-      <c r="D221" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="1">
-        <v>233</v>
-      </c>
-      <c r="B222" t="s">
-        <v>185</v>
-      </c>
-      <c r="C222" t="s">
-        <v>511</v>
-      </c>
       <c r="D222" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>387</v>
+        <v>175</v>
       </c>
       <c r="C223" t="s">
         <v>427</v>
@@ -5396,16 +5572,16 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>345</v>
+        <v>176</v>
       </c>
       <c r="C224" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -5416,21 +5592,21 @@
         <v>505</v>
       </c>
       <c r="D225" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>348</v>
+        <v>178</v>
       </c>
       <c r="C226" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -5438,13 +5614,13 @@
         <v>386</v>
       </c>
       <c r="C227" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D227" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -5455,10 +5631,10 @@
         <v>506</v>
       </c>
       <c r="D228" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -5466,27 +5642,27 @@
         <v>180</v>
       </c>
       <c r="C229" t="s">
+        <v>626</v>
+      </c>
+      <c r="D229" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>181</v>
+      </c>
+      <c r="C230" t="s">
         <v>627</v>
       </c>
-      <c r="D229" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="1">
-        <v>242</v>
-      </c>
-      <c r="B230" t="s">
-        <v>350</v>
-      </c>
-      <c r="C230" t="s">
-        <v>513</v>
-      </c>
       <c r="D230" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -5497,10 +5673,10 @@
         <v>507</v>
       </c>
       <c r="D231" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -5511,10 +5687,10 @@
         <v>508</v>
       </c>
       <c r="D232" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -5525,24 +5701,24 @@
         <v>509</v>
       </c>
       <c r="D233" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>351</v>
+        <v>185</v>
       </c>
       <c r="C234" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D234" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -5553,10 +5729,10 @@
         <v>510</v>
       </c>
       <c r="D235" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -5567,32 +5743,32 @@
         <v>512</v>
       </c>
       <c r="D236" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>188</v>
+        <v>387</v>
       </c>
       <c r="C237" t="s">
-        <v>516</v>
+        <v>427</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>189</v>
+        <v>345</v>
       </c>
       <c r="C238" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -5600,13 +5776,13 @@
         <v>346</v>
       </c>
       <c r="C239" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D239" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -5617,24 +5793,24 @@
         <v>513</v>
       </c>
       <c r="D240" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>191</v>
+        <v>348</v>
       </c>
       <c r="C241" t="s">
-        <v>518</v>
+        <v>628</v>
       </c>
       <c r="D241" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -5645,57 +5821,63 @@
         <v>514</v>
       </c>
       <c r="D242" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>192</v>
+        <v>350</v>
       </c>
       <c r="C243" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+      <c r="D243" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="C244" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D244" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C245" t="s">
-        <v>522</v>
+        <v>516</v>
+      </c>
+      <c r="D245" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C246" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -5706,32 +5888,35 @@
         <v>517</v>
       </c>
       <c r="D247" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C248" t="s">
-        <v>524</v>
+        <v>518</v>
+      </c>
+      <c r="D248" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C249" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -5742,10 +5927,10 @@
         <v>519</v>
       </c>
       <c r="D250" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -5756,32 +5941,38 @@
         <v>520</v>
       </c>
       <c r="D251" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>200</v>
+        <v>388</v>
       </c>
       <c r="C252" t="s">
-        <v>630</v>
+        <v>521</v>
+      </c>
+      <c r="D252" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C253" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+      <c r="D253" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -5792,231 +5983,258 @@
         <v>523</v>
       </c>
       <c r="D254" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C255" t="s">
-        <v>525</v>
+        <v>661</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C256" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+      <c r="D256" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C257" t="s">
-        <v>661</v>
+        <v>683</v>
       </c>
       <c r="D257" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C258" t="s">
-        <v>632</v>
+        <v>629</v>
+      </c>
+      <c r="D258" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C259" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+      <c r="D259" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C260" t="s">
-        <v>527</v>
+        <v>682</v>
       </c>
       <c r="D260" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C261" t="s">
-        <v>661</v>
+        <v>525</v>
+      </c>
+      <c r="D261" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C262" t="s">
-        <v>528</v>
+        <v>660</v>
+      </c>
+      <c r="D262" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C263" t="s">
-        <v>528</v>
+        <v>631</v>
+      </c>
+      <c r="D263" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C264" t="s">
-        <v>529</v>
+        <v>660</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C265" t="s">
-        <v>427</v>
+        <v>526</v>
+      </c>
+      <c r="D265" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C266" t="s">
-        <v>427</v>
+        <v>632</v>
+      </c>
+      <c r="D266" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C267" t="s">
-        <v>427</v>
+        <v>660</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C268" t="s">
-        <v>661</v>
+        <v>527</v>
+      </c>
+      <c r="D268" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C269" t="s">
-        <v>606</v>
+        <v>527</v>
+      </c>
+      <c r="D269" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C270" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+      <c r="D270" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C271" t="s">
-        <v>530</v>
-      </c>
-      <c r="D271" t="s">
-        <v>679</v>
+        <v>427</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C272" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C273" t="s">
-        <v>534</v>
-      </c>
-      <c r="D273" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -6024,96 +6242,105 @@
         <v>216</v>
       </c>
       <c r="C274" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D274" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C275" t="s">
-        <v>427</v>
+        <v>660</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C276" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+      <c r="D276" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C277" t="s">
-        <v>636</v>
-      </c>
-      <c r="D277" t="s">
-        <v>679</v>
+        <v>403</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C278" t="s">
-        <v>637</v>
+        <v>529</v>
+      </c>
+      <c r="D278" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C279" t="s">
-        <v>536</v>
+        <v>530</v>
+      </c>
+      <c r="D279" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C280" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+      <c r="D280" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C281" t="s">
-        <v>537</v>
+        <v>634</v>
       </c>
       <c r="D281" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -6121,46 +6348,49 @@
         <v>224</v>
       </c>
       <c r="C282" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D282" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C283" t="s">
-        <v>661</v>
+        <v>533</v>
+      </c>
+      <c r="D283" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C284" t="s">
-        <v>661</v>
+        <v>427</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C285" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -6168,91 +6398,94 @@
         <v>228</v>
       </c>
       <c r="C286" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D286" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C287" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+      <c r="D287" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C288" t="s">
-        <v>541</v>
+        <v>636</v>
       </c>
       <c r="D288" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C289" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+      <c r="D289" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
-        <v>371</v>
+        <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>370</v>
+        <v>232</v>
       </c>
       <c r="C290" t="s">
-        <v>570</v>
+        <v>686</v>
       </c>
       <c r="D290" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>46</v>
+        <v>233</v>
       </c>
       <c r="C291" t="s">
-        <v>440</v>
+        <v>536</v>
       </c>
       <c r="D291" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="C292" t="s">
-        <v>440</v>
-      </c>
-      <c r="D292" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -6260,52 +6493,49 @@
         <v>235</v>
       </c>
       <c r="C293" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D293" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C294" t="s">
-        <v>532</v>
-      </c>
-      <c r="D294" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <v>96</v>
+        <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>68</v>
+        <v>237</v>
       </c>
       <c r="C295" t="s">
-        <v>453</v>
-      </c>
-      <c r="D295" t="s">
-        <v>679</v>
+        <v>427</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C296" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+      <c r="D296" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -6313,55 +6543,55 @@
         <v>239</v>
       </c>
       <c r="C297" t="s">
+        <v>539</v>
+      </c>
+      <c r="D297" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>240</v>
+      </c>
+      <c r="C298" t="s">
         <v>540</v>
       </c>
-      <c r="D297" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="1">
-        <v>280</v>
-      </c>
-      <c r="B298" t="s">
-        <v>223</v>
-      </c>
-      <c r="C298" t="s">
-        <v>635</v>
-      </c>
       <c r="D298" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <v>97</v>
+        <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>69</v>
+        <v>241</v>
       </c>
       <c r="C299" t="s">
-        <v>593</v>
+        <v>541</v>
       </c>
       <c r="D299" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>393</v>
+        <v>242</v>
       </c>
       <c r="C300" t="s">
-        <v>569</v>
+        <v>686</v>
       </c>
       <c r="D300" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -6369,91 +6599,97 @@
         <v>243</v>
       </c>
       <c r="C301" t="s">
+        <v>637</v>
+      </c>
+      <c r="D301" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>244</v>
+      </c>
+      <c r="C302" t="s">
         <v>638</v>
       </c>
-      <c r="D301" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="1">
-        <v>265</v>
-      </c>
-      <c r="B302" t="s">
-        <v>208</v>
-      </c>
-      <c r="C302" t="s">
-        <v>633</v>
-      </c>
       <c r="D302" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <v>114</v>
+        <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>86</v>
+        <v>352</v>
       </c>
       <c r="C303" t="s">
-        <v>596</v>
+        <v>542</v>
       </c>
       <c r="D303" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>244</v>
+        <v>353</v>
       </c>
       <c r="C304" t="s">
-        <v>639</v>
+        <v>543</v>
+      </c>
+      <c r="D304" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>352</v>
+        <v>245</v>
       </c>
       <c r="C305" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+      <c r="D305" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>353</v>
+        <v>246</v>
       </c>
       <c r="C306" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D306" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C307" t="s">
-        <v>545</v>
+        <v>480</v>
       </c>
       <c r="D307" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -6461,13 +6697,13 @@
         <v>248</v>
       </c>
       <c r="C308" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D308" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -6475,27 +6711,27 @@
         <v>249</v>
       </c>
       <c r="C309" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D309" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>246</v>
+        <v>354</v>
       </c>
       <c r="C310" t="s">
-        <v>546</v>
+        <v>639</v>
       </c>
       <c r="D310" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -6506,24 +6742,21 @@
         <v>412</v>
       </c>
       <c r="D311" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>247</v>
+        <v>356</v>
       </c>
       <c r="C312" t="s">
-        <v>480</v>
-      </c>
-      <c r="D312" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -6531,13 +6764,13 @@
         <v>357</v>
       </c>
       <c r="C313" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D313" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -6545,13 +6778,13 @@
         <v>358</v>
       </c>
       <c r="C314" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D314" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -6559,27 +6792,27 @@
         <v>250</v>
       </c>
       <c r="C315" t="s">
+        <v>642</v>
+      </c>
+      <c r="D315" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>251</v>
+      </c>
+      <c r="C316" t="s">
         <v>643</v>
       </c>
-      <c r="D315" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="1">
-        <v>309</v>
-      </c>
-      <c r="B316" t="s">
-        <v>354</v>
-      </c>
-      <c r="C316" t="s">
-        <v>640</v>
-      </c>
       <c r="D316" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -6587,13 +6820,13 @@
         <v>252</v>
       </c>
       <c r="C317" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D317" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -6601,13 +6834,13 @@
         <v>253</v>
       </c>
       <c r="C318" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D318" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -6615,24 +6848,24 @@
         <v>254</v>
       </c>
       <c r="C319" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D319" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>356</v>
+        <v>255</v>
       </c>
       <c r="C320" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -6640,13 +6873,13 @@
         <v>256</v>
       </c>
       <c r="C321" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D321" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -6654,38 +6887,38 @@
         <v>257</v>
       </c>
       <c r="C322" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D322" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C323" t="s">
-        <v>644</v>
-      </c>
-      <c r="D323" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C324" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+      <c r="D324" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -6693,35 +6926,38 @@
         <v>260</v>
       </c>
       <c r="C325" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D325" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C326" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C327" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+      <c r="D327" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -6729,168 +6965,177 @@
         <v>389</v>
       </c>
       <c r="C328" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D328" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>261</v>
+        <v>359</v>
       </c>
       <c r="C329" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>262</v>
+        <v>390</v>
       </c>
       <c r="C330" t="s">
-        <v>553</v>
+        <v>403</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>359</v>
+        <v>263</v>
       </c>
       <c r="C331" t="s">
-        <v>661</v>
+        <v>554</v>
+      </c>
+      <c r="D331" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>390</v>
+        <v>264</v>
       </c>
       <c r="C332" t="s">
-        <v>403</v>
+        <v>646</v>
+      </c>
+      <c r="D332" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C333" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>686</v>
+      </c>
+      <c r="D333" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>264</v>
+        <v>395</v>
       </c>
       <c r="C334" t="s">
-        <v>647</v>
-      </c>
-      <c r="D334" t="s">
-        <v>679</v>
+        <v>427</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>265</v>
+        <v>394</v>
       </c>
       <c r="C335" t="s">
-        <v>661</v>
+        <v>427</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="C336" t="s">
-        <v>427</v>
+        <v>555</v>
+      </c>
+      <c r="D336" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="C337" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C338" t="s">
         <v>556</v>
       </c>
       <c r="D338" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>361</v>
+        <v>266</v>
       </c>
       <c r="C339" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+      <c r="D339" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>362</v>
+        <v>267</v>
       </c>
       <c r="C340" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>268</v>
+      </c>
+      <c r="C341" t="s">
         <v>557</v>
       </c>
-      <c r="D340" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="1">
-        <v>338</v>
-      </c>
-      <c r="B341" t="s">
-        <v>266</v>
-      </c>
-      <c r="C341" t="s">
-        <v>556</v>
-      </c>
       <c r="D341" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -6901,43 +7146,49 @@
         <v>513</v>
       </c>
       <c r="D342" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C343" t="s">
-        <v>661</v>
+        <v>427</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C344" t="s">
         <v>558</v>
       </c>
+      <c r="D344" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>270</v>
+        <v>653</v>
       </c>
       <c r="C345" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>654</v>
+      </c>
+      <c r="D345" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -6945,52 +7196,52 @@
         <v>363</v>
       </c>
       <c r="C346" t="s">
+        <v>647</v>
+      </c>
+      <c r="D346" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>272</v>
+      </c>
+      <c r="C347" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>273</v>
+      </c>
+      <c r="C348" t="s">
         <v>648</v>
       </c>
-      <c r="D346" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="1">
-        <v>343</v>
-      </c>
-      <c r="B347" t="s">
-        <v>271</v>
-      </c>
-      <c r="C347" t="s">
-        <v>559</v>
-      </c>
-      <c r="D347" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="1">
-        <v>344</v>
-      </c>
-      <c r="B348" t="s">
-        <v>654</v>
-      </c>
-      <c r="C348" t="s">
-        <v>655</v>
-      </c>
       <c r="D348" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C349" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+      <c r="D349" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -6998,24 +7249,24 @@
         <v>364</v>
       </c>
       <c r="C350" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D350" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>273</v>
+        <v>365</v>
       </c>
       <c r="C351" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -7023,13 +7274,13 @@
         <v>366</v>
       </c>
       <c r="C352" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D352" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -7037,24 +7288,27 @@
         <v>367</v>
       </c>
       <c r="C353" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D353" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>274</v>
+        <v>662</v>
       </c>
       <c r="C354" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+      <c r="D354" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -7062,13 +7316,13 @@
         <v>275</v>
       </c>
       <c r="C355" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D355" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -7076,13 +7330,13 @@
         <v>276</v>
       </c>
       <c r="C356" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D356" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -7090,24 +7344,27 @@
         <v>277</v>
       </c>
       <c r="C357" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D357" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>365</v>
+        <v>278</v>
       </c>
       <c r="C358" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+      <c r="D358" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -7115,69 +7372,66 @@
         <v>279</v>
       </c>
       <c r="C359" t="s">
+        <v>565</v>
+      </c>
+      <c r="D359" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>280</v>
+      </c>
+      <c r="C360" t="s">
+        <v>660</v>
+      </c>
+      <c r="D360" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>281</v>
+      </c>
+      <c r="C361" t="s">
         <v>566</v>
       </c>
-      <c r="D359" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="1">
-        <v>353</v>
-      </c>
-      <c r="B360" t="s">
-        <v>663</v>
-      </c>
-      <c r="C360" t="s">
-        <v>664</v>
-      </c>
-      <c r="D360" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="1">
-        <v>357</v>
-      </c>
-      <c r="B361" t="s">
-        <v>278</v>
-      </c>
-      <c r="C361" t="s">
+      <c r="D361" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>282</v>
+      </c>
+      <c r="C362" t="s">
         <v>650</v>
       </c>
-      <c r="D361" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="1">
-        <v>359</v>
-      </c>
-      <c r="B362" t="s">
-        <v>280</v>
-      </c>
-      <c r="C362" t="s">
-        <v>661</v>
-      </c>
       <c r="D362" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C363" t="s">
-        <v>567</v>
-      </c>
-      <c r="D363" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -7185,107 +7439,113 @@
         <v>284</v>
       </c>
       <c r="C364" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D364" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C365" t="s">
-        <v>651</v>
-      </c>
-      <c r="D365" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>283</v>
+        <v>393</v>
       </c>
       <c r="C366" t="s">
-        <v>427</v>
+        <v>568</v>
+      </c>
+      <c r="D366" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>285</v>
+        <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B368" t="s">
+        <v>392</v>
+      </c>
+      <c r="C368" t="s">
+        <v>651</v>
+      </c>
+      <c r="D368" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
         <v>368</v>
       </c>
-      <c r="C368" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="1">
-        <v>367</v>
-      </c>
       <c r="B369" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C369" t="s">
-        <v>652</v>
-      </c>
-      <c r="D369" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>391</v>
+        <v>652</v>
       </c>
       <c r="C370" t="s">
-        <v>661</v>
+        <v>655</v>
+      </c>
+      <c r="D370" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
         <v>369</v>
       </c>
-      <c r="B371" t="s">
-        <v>653</v>
-      </c>
       <c r="C371" t="s">
-        <v>656</v>
+        <v>427</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
         <v>370</v>
       </c>
-      <c r="B372" t="s">
-        <v>369</v>
-      </c>
       <c r="C372" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+      <c r="D372" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -7293,13 +7553,13 @@
         <v>286</v>
       </c>
       <c r="C373" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D373" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -7307,10 +7567,10 @@
         <v>287</v>
       </c>
       <c r="C374" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D374" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
@@ -7321,7 +7581,7 @@
         <v>371</v>
       </c>
       <c r="C375" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
@@ -7332,7 +7592,7 @@
         <v>372</v>
       </c>
       <c r="C376" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
@@ -7343,7 +7603,7 @@
         <v>373</v>
       </c>
       <c r="C377" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
@@ -7354,7 +7614,7 @@
         <v>374</v>
       </c>
       <c r="C378" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
@@ -7365,7 +7625,7 @@
         <v>288</v>
       </c>
       <c r="C379" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
@@ -7376,7 +7636,7 @@
         <v>289</v>
       </c>
       <c r="C380" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
@@ -7387,10 +7647,10 @@
         <v>290</v>
       </c>
       <c r="C381" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -7398,10 +7658,10 @@
         <v>291</v>
       </c>
       <c r="C382" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D382" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
@@ -7448,7 +7708,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -7456,10 +7716,10 @@
         <v>296</v>
       </c>
       <c r="C387" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D387" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
@@ -7470,7 +7730,10 @@
         <v>297</v>
       </c>
       <c r="C388" t="s">
-        <v>574</v>
+        <v>573</v>
+      </c>
+      <c r="D388" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
@@ -7481,7 +7744,7 @@
         <v>298</v>
       </c>
       <c r="C389" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
@@ -7525,7 +7788,10 @@
         <v>302</v>
       </c>
       <c r="C393" t="s">
-        <v>658</v>
+        <v>657</v>
+      </c>
+      <c r="D393" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
@@ -7536,7 +7802,10 @@
         <v>303</v>
       </c>
       <c r="C394" t="s">
-        <v>659</v>
+        <v>658</v>
+      </c>
+      <c r="D394" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
@@ -7547,7 +7816,10 @@
         <v>304</v>
       </c>
       <c r="C395" t="s">
-        <v>661</v>
+        <v>688</v>
+      </c>
+      <c r="D395" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
@@ -7558,7 +7830,10 @@
         <v>375</v>
       </c>
       <c r="C396" t="s">
-        <v>660</v>
+        <v>659</v>
+      </c>
+      <c r="D396" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
@@ -7569,7 +7844,10 @@
         <v>376</v>
       </c>
       <c r="C397" t="s">
-        <v>575</v>
+        <v>574</v>
+      </c>
+      <c r="D397" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
@@ -7580,10 +7858,10 @@
         <v>377</v>
       </c>
       <c r="C398" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -7591,10 +7869,10 @@
         <v>378</v>
       </c>
       <c r="C399" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D399" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
@@ -7608,7 +7886,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -7616,13 +7894,13 @@
         <v>380</v>
       </c>
       <c r="C401" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D401" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>900</v>
       </c>
@@ -7630,13 +7908,13 @@
         <v>355</v>
       </c>
       <c r="C402" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D402" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>901</v>
       </c>
@@ -7644,13 +7922,13 @@
         <v>288</v>
       </c>
       <c r="C403" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D403" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>902</v>
       </c>
@@ -7658,13 +7936,13 @@
         <v>152</v>
       </c>
       <c r="C404" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D404" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>903</v>
       </c>
@@ -7672,13 +7950,13 @@
         <v>154</v>
       </c>
       <c r="C405" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D405" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>904</v>
       </c>
@@ -7686,13 +7964,13 @@
         <v>40</v>
       </c>
       <c r="C406" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D406" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>905</v>
       </c>
@@ -7700,13 +7978,13 @@
         <v>230</v>
       </c>
       <c r="C407" s="29" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D407" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>906</v>
       </c>
@@ -7714,10 +7992,10 @@
         <v>331</v>
       </c>
       <c r="C408" s="29" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D408" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -7752,13 +8030,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B1" t="s">
         <v>665</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>666</v>
-      </c>
-      <c r="C1" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -7967,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -8231,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -8341,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -9562,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -9573,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -9793,7 +10071,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -9804,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -10013,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">

--- a/31 - Gen VIII - SWSH Collection/000 - Hunting.xlsx
+++ b/31 - Gen VIII - SWSH Collection/000 - Hunting.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\RoCs-PC\31 - Gen VIII - SWSH Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="423" documentId="13_ncr:1_{C76A387B-0C5A-47D0-B3D9-5D68A762B8D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8C73A8EF-1EB6-4BA2-BDBE-0B29D92D5524}"/>
+  <xr:revisionPtr revIDLastSave="528" documentId="13_ncr:1_{C76A387B-0C5A-47D0-B3D9-5D68A762B8D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DEDE0948-31F0-4298-B5D2-7D8609E66307}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2760" windowWidth="29040" windowHeight="15840" xr2:uid="{317F0733-B8F8-413E-9D08-B236975643E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{317F0733-B8F8-413E-9D08-B236975643E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sword" sheetId="1" r:id="rId1"/>
+    <sheet name="Pokemon" sheetId="1" r:id="rId1"/>
     <sheet name="Statics" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="698">
   <si>
     <t>Pokemon</t>
   </si>
@@ -2017,9 +2017,6 @@
     <t>Evolved / Raid</t>
   </si>
   <si>
-    <t>Breed / Raid</t>
-  </si>
-  <si>
     <t>Pincurchin</t>
   </si>
   <si>
@@ -2101,16 +2098,34 @@
     <t>Evolved / Raid / Dusty Bowl</t>
   </si>
   <si>
-    <t>Evolved / Raid / South Lake Miloch</t>
-  </si>
-  <si>
     <t>Evolved / Raid / Hammerlocke Hills</t>
   </si>
   <si>
-    <t>Breed / Raid / Wild Area</t>
-  </si>
-  <si>
     <t>Evolved / Raid / Bridge Field</t>
+  </si>
+  <si>
+    <t>Evolved (Trade)</t>
+  </si>
+  <si>
+    <t>Starter (Alt)</t>
+  </si>
+  <si>
+    <t>Evolved (Alt)</t>
+  </si>
+  <si>
+    <t>Breed</t>
+  </si>
+  <si>
+    <t>Evolved (Special)</t>
+  </si>
+  <si>
+    <t>Evolved (Ice Stone)</t>
+  </si>
+  <si>
+    <t>Evolved (16)</t>
+  </si>
+  <si>
+    <t>Evolved (36)</t>
   </si>
 </sst>
 </file>
@@ -2216,9 +2231,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A70110D2-3A9A-4AB3-B8DD-5EF3FE6692DF}" name="Table1" displayName="Table1" ref="A1:D408" totalsRowShown="0">
-  <autoFilter ref="A1:D408" xr:uid="{B8B34BC1-B866-4376-8232-AE6655C1A263}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D408">
-    <sortCondition ref="A1:A408"/>
+  <autoFilter ref="A1:D408" xr:uid="{B8B34BC1-B866-4376-8232-AE6655C1A263}">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D400">
+    <sortCondition ref="C1:C408"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4F0BF650-0800-4061-8545-A6CDBDB34D96}" name="No." dataDxfId="0"/>
@@ -2544,7 +2563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C1920C-6C06-44B6-BD24-7C088C574AB6}">
   <dimension ref="A1:K408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C271" sqref="C271"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2565,20 +2586,20 @@
         <v>396</v>
       </c>
       <c r="D1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F1" t="s">
         <v>672</v>
       </c>
-      <c r="F1" t="s">
-        <v>673</v>
-      </c>
       <c r="G1" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2586,13 +2607,16 @@
         <v>305</v>
       </c>
       <c r="C2" t="s">
-        <v>402</v>
+        <v>691</v>
+      </c>
+      <c r="D2" t="s">
+        <v>677</v>
       </c>
       <c r="F2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
@@ -2607,7 +2631,7 @@
         <v>306</v>
       </c>
       <c r="C3" t="s">
-        <v>403</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2618,10 +2642,10 @@
         <v>307</v>
       </c>
       <c r="C4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2632,10 +2656,10 @@
         <v>402</v>
       </c>
       <c r="D5" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2643,10 +2667,13 @@
         <v>309</v>
       </c>
       <c r="C6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>692</v>
+      </c>
+      <c r="D6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2654,10 +2681,13 @@
         <v>310</v>
       </c>
       <c r="C7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>692</v>
+      </c>
+      <c r="D7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2665,7 +2695,10 @@
         <v>311</v>
       </c>
       <c r="C8" t="s">
-        <v>402</v>
+        <v>691</v>
+      </c>
+      <c r="D8" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2676,7 +2709,7 @@
         <v>312</v>
       </c>
       <c r="C9" t="s">
-        <v>403</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2687,10 +2720,10 @@
         <v>313</v>
       </c>
       <c r="C10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2701,10 +2734,10 @@
         <v>404</v>
       </c>
       <c r="D11" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2715,10 +2748,10 @@
         <v>405</v>
       </c>
       <c r="D12" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2729,10 +2762,10 @@
         <v>417</v>
       </c>
       <c r="D13" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2743,10 +2776,10 @@
         <v>575</v>
       </c>
       <c r="D14" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2757,10 +2790,10 @@
         <v>406</v>
       </c>
       <c r="D15" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2771,10 +2804,10 @@
         <v>407</v>
       </c>
       <c r="D16" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2785,10 +2818,10 @@
         <v>418</v>
       </c>
       <c r="D17" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2799,10 +2832,10 @@
         <v>576</v>
       </c>
       <c r="D18" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2813,10 +2846,10 @@
         <v>660</v>
       </c>
       <c r="D19" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2827,10 +2860,10 @@
         <v>408</v>
       </c>
       <c r="D20" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2841,10 +2874,10 @@
         <v>409</v>
       </c>
       <c r="D21" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2855,10 +2888,10 @@
         <v>399</v>
       </c>
       <c r="D22" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2869,10 +2902,10 @@
         <v>410</v>
       </c>
       <c r="D23" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2883,10 +2916,10 @@
         <v>419</v>
       </c>
       <c r="D24" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2897,24 +2930,24 @@
         <v>398</v>
       </c>
       <c r="D25" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D26" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2925,10 +2958,10 @@
         <v>411</v>
       </c>
       <c r="D27" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2939,10 +2972,10 @@
         <v>412</v>
       </c>
       <c r="D28" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2953,10 +2986,10 @@
         <v>413</v>
       </c>
       <c r="D29" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2967,10 +3000,10 @@
         <v>401</v>
       </c>
       <c r="D30" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2981,10 +3014,10 @@
         <v>414</v>
       </c>
       <c r="D31" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2995,10 +3028,10 @@
         <v>415</v>
       </c>
       <c r="D32" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3009,10 +3042,10 @@
         <v>416</v>
       </c>
       <c r="D33" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3023,10 +3056,10 @@
         <v>577</v>
       </c>
       <c r="D34" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3037,10 +3070,10 @@
         <v>400</v>
       </c>
       <c r="D35" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3051,43 +3084,43 @@
         <v>578</v>
       </c>
       <c r="D36" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>427</v>
+        <v>690</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>427</v>
+        <v>690</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3098,10 +3131,10 @@
         <v>579</v>
       </c>
       <c r="D40" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3112,10 +3145,10 @@
         <v>420</v>
       </c>
       <c r="D41" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3123,13 +3156,13 @@
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D42" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3140,10 +3173,10 @@
         <v>405</v>
       </c>
       <c r="D43" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3154,10 +3187,10 @@
         <v>580</v>
       </c>
       <c r="D44" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3168,10 +3201,10 @@
         <v>422</v>
       </c>
       <c r="D45" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3182,10 +3215,10 @@
         <v>423</v>
       </c>
       <c r="D46" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3196,10 +3229,10 @@
         <v>424</v>
       </c>
       <c r="D47" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3210,10 +3243,10 @@
         <v>581</v>
       </c>
       <c r="D48" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3224,10 +3257,10 @@
         <v>425</v>
       </c>
       <c r="D49" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3238,10 +3271,10 @@
         <v>582</v>
       </c>
       <c r="D50" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3252,10 +3285,10 @@
         <v>426</v>
       </c>
       <c r="D51" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3263,13 +3296,13 @@
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D52" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3280,10 +3313,10 @@
         <v>428</v>
       </c>
       <c r="D53" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3294,10 +3327,10 @@
         <v>583</v>
       </c>
       <c r="D54" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3308,10 +3341,10 @@
         <v>660</v>
       </c>
       <c r="D55" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3322,10 +3355,10 @@
         <v>429</v>
       </c>
       <c r="D56" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3336,10 +3369,10 @@
         <v>430</v>
       </c>
       <c r="D57" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3350,10 +3383,10 @@
         <v>660</v>
       </c>
       <c r="D58" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3361,10 +3394,13 @@
         <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+      <c r="D59" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3375,10 +3411,10 @@
         <v>584</v>
       </c>
       <c r="D60" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3389,10 +3425,10 @@
         <v>585</v>
       </c>
       <c r="D61" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3400,10 +3436,13 @@
         <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>688</v>
+      </c>
+      <c r="D62" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3414,10 +3453,10 @@
         <v>431</v>
       </c>
       <c r="D63" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3428,10 +3467,10 @@
         <v>432</v>
       </c>
       <c r="D64" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3442,10 +3481,10 @@
         <v>586</v>
       </c>
       <c r="D65" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3456,10 +3495,10 @@
         <v>414</v>
       </c>
       <c r="D66" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3470,10 +3509,10 @@
         <v>433</v>
       </c>
       <c r="D67" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3484,10 +3523,10 @@
         <v>434</v>
       </c>
       <c r="D68" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3498,10 +3537,10 @@
         <v>435</v>
       </c>
       <c r="D69" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3512,10 +3551,10 @@
         <v>436</v>
       </c>
       <c r="D70" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3526,10 +3565,10 @@
         <v>437</v>
       </c>
       <c r="D71" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3539,8 +3578,11 @@
       <c r="C72" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3551,10 +3593,10 @@
         <v>438</v>
       </c>
       <c r="D73" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3565,10 +3607,10 @@
         <v>439</v>
       </c>
       <c r="D74" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3579,10 +3621,10 @@
         <v>440</v>
       </c>
       <c r="D75" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3593,10 +3635,10 @@
         <v>587</v>
       </c>
       <c r="D76" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3607,10 +3649,10 @@
         <v>588</v>
       </c>
       <c r="D77" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3620,8 +3662,11 @@
       <c r="C78" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3632,10 +3677,10 @@
         <v>589</v>
       </c>
       <c r="D79" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3646,10 +3691,10 @@
         <v>441</v>
       </c>
       <c r="D80" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3660,10 +3705,10 @@
         <v>440</v>
       </c>
       <c r="D81" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3673,8 +3718,11 @@
       <c r="C82" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3685,10 +3733,10 @@
         <v>442</v>
       </c>
       <c r="D83" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3699,10 +3747,10 @@
         <v>443</v>
       </c>
       <c r="D84" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3713,10 +3761,10 @@
         <v>590</v>
       </c>
       <c r="D85" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3727,10 +3775,10 @@
         <v>444</v>
       </c>
       <c r="D86" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3741,10 +3789,10 @@
         <v>445</v>
       </c>
       <c r="D87" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3755,10 +3803,10 @@
         <v>446</v>
       </c>
       <c r="D88" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3769,10 +3817,10 @@
         <v>447</v>
       </c>
       <c r="D89" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3783,10 +3831,10 @@
         <v>448</v>
       </c>
       <c r="D90" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3797,10 +3845,10 @@
         <v>449</v>
       </c>
       <c r="D91" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3808,13 +3856,13 @@
         <v>63</v>
       </c>
       <c r="C92" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D92" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3825,10 +3873,10 @@
         <v>450</v>
       </c>
       <c r="D93" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3839,10 +3887,10 @@
         <v>591</v>
       </c>
       <c r="D94" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3853,10 +3901,10 @@
         <v>451</v>
       </c>
       <c r="D95" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3867,10 +3915,10 @@
         <v>452</v>
       </c>
       <c r="D96" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3881,10 +3929,10 @@
         <v>453</v>
       </c>
       <c r="D97" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3895,10 +3943,10 @@
         <v>592</v>
       </c>
       <c r="D98" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3909,10 +3957,10 @@
         <v>454</v>
       </c>
       <c r="D99" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3923,10 +3971,10 @@
         <v>455</v>
       </c>
       <c r="D100" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3937,10 +3985,10 @@
         <v>456</v>
       </c>
       <c r="D101" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3951,10 +3999,10 @@
         <v>421</v>
       </c>
       <c r="D102" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3965,10 +4013,10 @@
         <v>454</v>
       </c>
       <c r="D103" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3979,10 +4027,10 @@
         <v>457</v>
       </c>
       <c r="D104" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3993,10 +4041,10 @@
         <v>593</v>
       </c>
       <c r="D105" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -4007,10 +4055,10 @@
         <v>458</v>
       </c>
       <c r="D106" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -4020,8 +4068,11 @@
       <c r="C107" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -4032,10 +4083,10 @@
         <v>459</v>
       </c>
       <c r="D108" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -4046,10 +4097,10 @@
         <v>460</v>
       </c>
       <c r="D109" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -4059,8 +4110,11 @@
       <c r="C110" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -4071,10 +4125,10 @@
         <v>461</v>
       </c>
       <c r="D111" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -4085,10 +4139,10 @@
         <v>462</v>
       </c>
       <c r="D112" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -4099,10 +4153,10 @@
         <v>594</v>
       </c>
       <c r="D113" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -4113,10 +4167,10 @@
         <v>463</v>
       </c>
       <c r="D114" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -4127,10 +4181,10 @@
         <v>595</v>
       </c>
       <c r="D115" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -4141,10 +4195,10 @@
         <v>464</v>
       </c>
       <c r="D116" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -4155,10 +4209,10 @@
         <v>462</v>
       </c>
       <c r="D117" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -4169,10 +4223,10 @@
         <v>660</v>
       </c>
       <c r="D118" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -4183,10 +4237,10 @@
         <v>465</v>
       </c>
       <c r="D119" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -4197,10 +4251,10 @@
         <v>598</v>
       </c>
       <c r="D120" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -4211,10 +4265,10 @@
         <v>466</v>
       </c>
       <c r="D121" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -4224,8 +4278,11 @@
       <c r="C122" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -4236,10 +4293,10 @@
         <v>599</v>
       </c>
       <c r="D123" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -4250,10 +4307,10 @@
         <v>660</v>
       </c>
       <c r="D124" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -4264,10 +4321,10 @@
         <v>600</v>
       </c>
       <c r="D125" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -4278,10 +4335,10 @@
         <v>467</v>
       </c>
       <c r="D126" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -4292,10 +4349,10 @@
         <v>468</v>
       </c>
       <c r="D127" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -4306,10 +4363,10 @@
         <v>601</v>
       </c>
       <c r="D128" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -4320,10 +4377,10 @@
         <v>602</v>
       </c>
       <c r="D129" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -4333,8 +4390,11 @@
       <c r="C130" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -4345,10 +4405,10 @@
         <v>469</v>
       </c>
       <c r="D131" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -4359,10 +4419,10 @@
         <v>603</v>
       </c>
       <c r="D132" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -4373,10 +4433,10 @@
         <v>470</v>
       </c>
       <c r="D133" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -4387,10 +4447,10 @@
         <v>604</v>
       </c>
       <c r="D134" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -4401,10 +4461,10 @@
         <v>605</v>
       </c>
       <c r="D135" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -4415,10 +4475,10 @@
         <v>471</v>
       </c>
       <c r="D136" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -4429,10 +4489,10 @@
         <v>606</v>
       </c>
       <c r="D137" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -4443,10 +4503,10 @@
         <v>660</v>
       </c>
       <c r="D138" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -4457,10 +4517,10 @@
         <v>458</v>
       </c>
       <c r="D139" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -4471,10 +4531,10 @@
         <v>472</v>
       </c>
       <c r="D140" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -4482,13 +4542,13 @@
         <v>110</v>
       </c>
       <c r="C141" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D141" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -4499,10 +4559,10 @@
         <v>473</v>
       </c>
       <c r="D142" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -4513,10 +4573,10 @@
         <v>607</v>
       </c>
       <c r="D143" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -4524,13 +4584,13 @@
         <v>113</v>
       </c>
       <c r="C144" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D144" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -4541,10 +4601,10 @@
         <v>608</v>
       </c>
       <c r="D145" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -4555,10 +4615,10 @@
         <v>609</v>
       </c>
       <c r="D146" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -4569,10 +4629,10 @@
         <v>475</v>
       </c>
       <c r="D147" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -4583,10 +4643,10 @@
         <v>403</v>
       </c>
       <c r="D148" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -4597,10 +4657,10 @@
         <v>476</v>
       </c>
       <c r="D149" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -4611,10 +4671,10 @@
         <v>477</v>
       </c>
       <c r="D150" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4625,10 +4685,10 @@
         <v>478</v>
       </c>
       <c r="D151" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -4639,10 +4699,10 @@
         <v>610</v>
       </c>
       <c r="D152" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -4653,21 +4713,21 @@
         <v>611</v>
       </c>
       <c r="D153" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>153</v>
+        <v>266</v>
       </c>
       <c r="B154" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="C154" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4678,10 +4738,10 @@
         <v>479</v>
       </c>
       <c r="D155" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -4692,10 +4752,10 @@
         <v>612</v>
       </c>
       <c r="D156" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -4706,10 +4766,10 @@
         <v>480</v>
       </c>
       <c r="D157" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4720,10 +4780,10 @@
         <v>481</v>
       </c>
       <c r="D158" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -4734,10 +4794,10 @@
         <v>482</v>
       </c>
       <c r="D159" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -4748,10 +4808,10 @@
         <v>613</v>
       </c>
       <c r="D160" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -4761,8 +4821,11 @@
       <c r="C161" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D161" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4773,10 +4836,10 @@
         <v>483</v>
       </c>
       <c r="D162" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4787,10 +4850,10 @@
         <v>484</v>
       </c>
       <c r="D163" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4801,10 +4864,10 @@
         <v>614</v>
       </c>
       <c r="D164" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4815,10 +4878,10 @@
         <v>485</v>
       </c>
       <c r="D165" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4829,10 +4892,10 @@
         <v>486</v>
       </c>
       <c r="D166" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4843,10 +4906,10 @@
         <v>485</v>
       </c>
       <c r="D167" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4857,10 +4920,10 @@
         <v>487</v>
       </c>
       <c r="D168" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4871,10 +4934,10 @@
         <v>488</v>
       </c>
       <c r="D169" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4885,21 +4948,21 @@
         <v>439</v>
       </c>
       <c r="D170" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>170</v>
+        <v>274</v>
       </c>
       <c r="B171" t="s">
-        <v>134</v>
-      </c>
-      <c r="C171" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="C171" s="29" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4910,10 +4973,10 @@
         <v>489</v>
       </c>
       <c r="D172" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4924,10 +4987,10 @@
         <v>441</v>
       </c>
       <c r="D173" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4935,13 +4998,13 @@
         <v>137</v>
       </c>
       <c r="C174" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D174" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4952,10 +5015,10 @@
         <v>490</v>
       </c>
       <c r="D175" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4965,8 +5028,11 @@
       <c r="C176" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D176" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4977,10 +5043,10 @@
         <v>491</v>
       </c>
       <c r="D177" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4991,10 +5057,10 @@
         <v>492</v>
       </c>
       <c r="D178" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -5005,10 +5071,10 @@
         <v>615</v>
       </c>
       <c r="D179" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -5019,10 +5085,10 @@
         <v>660</v>
       </c>
       <c r="D180" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -5033,10 +5099,10 @@
         <v>493</v>
       </c>
       <c r="D181" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -5047,10 +5113,10 @@
         <v>494</v>
       </c>
       <c r="D182" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -5061,10 +5127,10 @@
         <v>495</v>
       </c>
       <c r="D183" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -5075,10 +5141,10 @@
         <v>496</v>
       </c>
       <c r="D184" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -5088,8 +5154,11 @@
       <c r="C185" s="29" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D185" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -5100,10 +5169,10 @@
         <v>616</v>
       </c>
       <c r="D186" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -5113,8 +5182,11 @@
       <c r="C187" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D187" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -5125,10 +5197,10 @@
         <v>497</v>
       </c>
       <c r="D188" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -5139,10 +5211,10 @@
         <v>617</v>
       </c>
       <c r="D189" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -5153,10 +5225,10 @@
         <v>618</v>
       </c>
       <c r="D190" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -5167,10 +5239,10 @@
         <v>619</v>
       </c>
       <c r="D191" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -5181,10 +5253,10 @@
         <v>498</v>
       </c>
       <c r="D192" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -5192,13 +5264,13 @@
         <v>150</v>
       </c>
       <c r="C193" s="29" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D193" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -5206,10 +5278,13 @@
         <v>151</v>
       </c>
       <c r="C194" s="29" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+      <c r="D194" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -5220,10 +5295,10 @@
         <v>499</v>
       </c>
       <c r="D195" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -5233,8 +5308,11 @@
       <c r="C196" s="29" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D196" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -5245,10 +5323,10 @@
         <v>500</v>
       </c>
       <c r="D197" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -5256,10 +5334,13 @@
         <v>155</v>
       </c>
       <c r="C198" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+      <c r="D198" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -5267,10 +5348,13 @@
         <v>156</v>
       </c>
       <c r="C199" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+      <c r="D199" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -5278,10 +5362,13 @@
         <v>157</v>
       </c>
       <c r="C200" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+      <c r="D200" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -5289,10 +5376,13 @@
         <v>158</v>
       </c>
       <c r="C201" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+      <c r="D201" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -5300,10 +5390,13 @@
         <v>159</v>
       </c>
       <c r="C202" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+      <c r="D202" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -5311,10 +5404,13 @@
         <v>160</v>
       </c>
       <c r="C203" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+      <c r="D203" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -5325,10 +5421,10 @@
         <v>660</v>
       </c>
       <c r="D204" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -5336,13 +5432,13 @@
         <v>162</v>
       </c>
       <c r="C205" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D205" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -5353,10 +5449,10 @@
         <v>620</v>
       </c>
       <c r="D206" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -5366,8 +5462,11 @@
       <c r="C207" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D207" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -5377,8 +5476,11 @@
       <c r="C208" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D208" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -5389,10 +5491,10 @@
         <v>621</v>
       </c>
       <c r="D209" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -5403,10 +5505,10 @@
         <v>622</v>
       </c>
       <c r="D210" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -5417,43 +5519,43 @@
         <v>501</v>
       </c>
       <c r="D211" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="B212" t="s">
-        <v>166</v>
-      </c>
-      <c r="C212" t="s">
-        <v>660</v>
+        <v>219</v>
+      </c>
+      <c r="C212" s="29" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>212</v>
+        <v>339</v>
       </c>
       <c r="B213" t="s">
-        <v>167</v>
+        <v>267</v>
       </c>
       <c r="C213" t="s">
-        <v>427</v>
+        <v>690</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>213</v>
+        <v>36</v>
       </c>
       <c r="B214" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="C214" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -5464,10 +5566,10 @@
         <v>593</v>
       </c>
       <c r="D215" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -5478,21 +5580,24 @@
         <v>502</v>
       </c>
       <c r="D216" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>171</v>
       </c>
-      <c r="C217" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C217" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="D217" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -5503,10 +5608,10 @@
         <v>503</v>
       </c>
       <c r="D218" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -5517,10 +5622,10 @@
         <v>504</v>
       </c>
       <c r="D219" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -5528,10 +5633,13 @@
         <v>344</v>
       </c>
       <c r="C220" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+      <c r="D220" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -5542,10 +5650,10 @@
         <v>623</v>
       </c>
       <c r="D221" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -5556,15 +5664,15 @@
         <v>624</v>
       </c>
       <c r="D222" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>222</v>
+        <v>37</v>
       </c>
       <c r="B223" t="s">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="C223" t="s">
         <v>427</v>
@@ -5572,16 +5680,16 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="B224" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="C224" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -5592,10 +5700,10 @@
         <v>505</v>
       </c>
       <c r="D225" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -5605,8 +5713,11 @@
       <c r="C226" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D226" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -5617,10 +5728,10 @@
         <v>625</v>
       </c>
       <c r="D227" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -5631,10 +5742,10 @@
         <v>506</v>
       </c>
       <c r="D228" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -5645,10 +5756,10 @@
         <v>626</v>
       </c>
       <c r="D229" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -5659,10 +5770,10 @@
         <v>627</v>
       </c>
       <c r="D230" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -5673,10 +5784,10 @@
         <v>507</v>
       </c>
       <c r="D231" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -5687,10 +5798,10 @@
         <v>508</v>
       </c>
       <c r="D232" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -5701,10 +5812,10 @@
         <v>509</v>
       </c>
       <c r="D233" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -5715,10 +5826,10 @@
         <v>511</v>
       </c>
       <c r="D234" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -5729,10 +5840,10 @@
         <v>510</v>
       </c>
       <c r="D235" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -5743,15 +5854,15 @@
         <v>512</v>
       </c>
       <c r="D236" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="B237" t="s">
-        <v>387</v>
+        <v>167</v>
       </c>
       <c r="C237" t="s">
         <v>427</v>
@@ -5759,16 +5870,16 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="B238" t="s">
-        <v>345</v>
+        <v>168</v>
       </c>
       <c r="C238" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -5776,13 +5887,13 @@
         <v>346</v>
       </c>
       <c r="C239" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D239" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -5793,10 +5904,10 @@
         <v>513</v>
       </c>
       <c r="D240" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -5807,10 +5918,10 @@
         <v>628</v>
       </c>
       <c r="D241" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -5821,10 +5932,10 @@
         <v>514</v>
       </c>
       <c r="D242" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -5835,10 +5946,10 @@
         <v>513</v>
       </c>
       <c r="D243" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -5849,10 +5960,10 @@
         <v>515</v>
       </c>
       <c r="D244" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -5863,10 +5974,10 @@
         <v>516</v>
       </c>
       <c r="D245" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -5876,8 +5987,11 @@
       <c r="C246" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D246" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -5888,10 +6002,10 @@
         <v>517</v>
       </c>
       <c r="D247" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -5902,21 +6016,21 @@
         <v>518</v>
       </c>
       <c r="D248" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B249" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C249" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -5927,10 +6041,10 @@
         <v>519</v>
       </c>
       <c r="D250" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -5941,10 +6055,10 @@
         <v>520</v>
       </c>
       <c r="D251" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -5955,10 +6069,10 @@
         <v>521</v>
       </c>
       <c r="D252" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -5969,10 +6083,10 @@
         <v>522</v>
       </c>
       <c r="D253" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -5983,21 +6097,24 @@
         <v>523</v>
       </c>
       <c r="D254" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" t="s">
         <v>197</v>
       </c>
-      <c r="C255" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C255" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="D255" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -6008,10 +6125,10 @@
         <v>524</v>
       </c>
       <c r="D256" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -6019,13 +6136,13 @@
         <v>199</v>
       </c>
       <c r="C257" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D257" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -6036,10 +6153,10 @@
         <v>629</v>
       </c>
       <c r="D258" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -6050,10 +6167,10 @@
         <v>630</v>
       </c>
       <c r="D259" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -6061,13 +6178,13 @@
         <v>202</v>
       </c>
       <c r="C260" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D260" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -6078,10 +6195,10 @@
         <v>525</v>
       </c>
       <c r="D261" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -6092,10 +6209,10 @@
         <v>660</v>
       </c>
       <c r="D262" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -6106,10 +6223,10 @@
         <v>631</v>
       </c>
       <c r="D263" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -6119,8 +6236,11 @@
       <c r="C264" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D264" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -6131,10 +6251,10 @@
         <v>526</v>
       </c>
       <c r="D265" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -6145,21 +6265,21 @@
         <v>632</v>
       </c>
       <c r="D266" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="B267" t="s">
-        <v>209</v>
-      </c>
-      <c r="C267" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="C267" s="29" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -6170,10 +6290,10 @@
         <v>527</v>
       </c>
       <c r="D268" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -6184,10 +6304,10 @@
         <v>527</v>
       </c>
       <c r="D269" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -6198,15 +6318,15 @@
         <v>528</v>
       </c>
       <c r="D270" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="B271" t="s">
-        <v>213</v>
+        <v>387</v>
       </c>
       <c r="C271" t="s">
         <v>427</v>
@@ -6214,10 +6334,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="B272" t="s">
-        <v>214</v>
+        <v>345</v>
       </c>
       <c r="C272" t="s">
         <v>427</v>
@@ -6225,16 +6345,16 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="B273" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C273" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -6245,21 +6365,21 @@
         <v>633</v>
       </c>
       <c r="D274" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B275" t="s">
-        <v>217</v>
-      </c>
-      <c r="C275" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="C275" s="29" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -6270,21 +6390,21 @@
         <v>605</v>
       </c>
       <c r="D276" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B277" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C277" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -6295,10 +6415,10 @@
         <v>529</v>
       </c>
       <c r="D278" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -6309,10 +6429,10 @@
         <v>530</v>
       </c>
       <c r="D279" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -6323,10 +6443,10 @@
         <v>531</v>
       </c>
       <c r="D280" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -6337,10 +6457,10 @@
         <v>634</v>
       </c>
       <c r="D281" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -6351,10 +6471,10 @@
         <v>532</v>
       </c>
       <c r="D282" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -6365,15 +6485,15 @@
         <v>533</v>
       </c>
       <c r="D283" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B284" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C284" t="s">
         <v>427</v>
@@ -6381,16 +6501,16 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C285" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -6401,10 +6521,10 @@
         <v>534</v>
       </c>
       <c r="D286" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -6415,10 +6535,10 @@
         <v>635</v>
       </c>
       <c r="D287" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -6429,10 +6549,10 @@
         <v>636</v>
       </c>
       <c r="D288" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -6443,10 +6563,10 @@
         <v>535</v>
       </c>
       <c r="D289" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -6454,13 +6574,13 @@
         <v>232</v>
       </c>
       <c r="C290" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D290" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -6471,10 +6591,10 @@
         <v>536</v>
       </c>
       <c r="D291" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -6484,8 +6604,11 @@
       <c r="C292" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D292" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -6496,10 +6619,10 @@
         <v>537</v>
       </c>
       <c r="D293" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -6507,21 +6630,24 @@
         <v>236</v>
       </c>
       <c r="C294" t="s">
-        <v>692</v>
+        <v>689</v>
+      </c>
+      <c r="D294" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B295" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C295" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -6532,10 +6658,10 @@
         <v>538</v>
       </c>
       <c r="D296" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -6546,10 +6672,10 @@
         <v>539</v>
       </c>
       <c r="D297" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -6560,10 +6686,10 @@
         <v>540</v>
       </c>
       <c r="D298" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -6574,10 +6700,10 @@
         <v>541</v>
       </c>
       <c r="D299" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -6585,13 +6711,13 @@
         <v>242</v>
       </c>
       <c r="C300" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D300" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -6602,10 +6728,10 @@
         <v>637</v>
       </c>
       <c r="D301" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -6616,10 +6742,10 @@
         <v>638</v>
       </c>
       <c r="D302" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -6630,10 +6756,10 @@
         <v>542</v>
       </c>
       <c r="D303" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -6644,10 +6770,10 @@
         <v>543</v>
       </c>
       <c r="D304" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -6658,10 +6784,10 @@
         <v>544</v>
       </c>
       <c r="D305" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -6672,10 +6798,10 @@
         <v>545</v>
       </c>
       <c r="D306" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -6686,10 +6812,10 @@
         <v>480</v>
       </c>
       <c r="D307" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -6700,10 +6826,10 @@
         <v>546</v>
       </c>
       <c r="D308" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -6714,10 +6840,10 @@
         <v>547</v>
       </c>
       <c r="D309" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -6728,10 +6854,10 @@
         <v>639</v>
       </c>
       <c r="D310" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -6742,10 +6868,10 @@
         <v>412</v>
       </c>
       <c r="D311" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -6755,8 +6881,11 @@
       <c r="C312" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D312" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -6767,10 +6896,10 @@
         <v>640</v>
       </c>
       <c r="D313" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -6781,10 +6910,10 @@
         <v>641</v>
       </c>
       <c r="D314" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -6795,10 +6924,10 @@
         <v>642</v>
       </c>
       <c r="D315" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -6809,10 +6938,10 @@
         <v>643</v>
       </c>
       <c r="D316" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -6823,10 +6952,10 @@
         <v>644</v>
       </c>
       <c r="D317" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -6837,10 +6966,10 @@
         <v>637</v>
       </c>
       <c r="D318" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -6851,10 +6980,10 @@
         <v>548</v>
       </c>
       <c r="D319" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -6864,8 +6993,11 @@
       <c r="C320" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D320" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -6876,10 +7008,10 @@
         <v>645</v>
       </c>
       <c r="D321" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -6890,10 +7022,10 @@
         <v>549</v>
       </c>
       <c r="D322" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -6903,8 +7035,11 @@
       <c r="C323" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D323" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -6915,10 +7050,10 @@
         <v>550</v>
       </c>
       <c r="D324" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -6929,10 +7064,10 @@
         <v>551</v>
       </c>
       <c r="D325" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -6942,8 +7077,11 @@
       <c r="C326" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D326" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -6954,10 +7092,10 @@
         <v>552</v>
       </c>
       <c r="D327" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -6968,10 +7106,10 @@
         <v>553</v>
       </c>
       <c r="D328" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -6981,8 +7119,11 @@
       <c r="C329" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D329" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -6992,8 +7133,11 @@
       <c r="C330" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D330" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -7004,10 +7148,10 @@
         <v>554</v>
       </c>
       <c r="D331" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -7018,10 +7162,10 @@
         <v>646</v>
       </c>
       <c r="D332" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -7029,18 +7173,18 @@
         <v>265</v>
       </c>
       <c r="C333" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D333" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="B334" t="s">
-        <v>395</v>
+        <v>237</v>
       </c>
       <c r="C334" t="s">
         <v>427</v>
@@ -7048,16 +7192,16 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C335" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -7068,10 +7212,10 @@
         <v>555</v>
       </c>
       <c r="D336" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -7081,8 +7225,11 @@
       <c r="C337" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D337" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -7093,10 +7240,10 @@
         <v>556</v>
       </c>
       <c r="D338" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -7107,21 +7254,21 @@
         <v>555</v>
       </c>
       <c r="D339" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B340" t="s">
-        <v>267</v>
-      </c>
-      <c r="C340" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+      <c r="C340" s="29" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -7132,10 +7279,10 @@
         <v>557</v>
       </c>
       <c r="D341" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -7146,7 +7293,7 @@
         <v>513</v>
       </c>
       <c r="D342" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -7160,7 +7307,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -7171,10 +7318,10 @@
         <v>558</v>
       </c>
       <c r="D344" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -7185,10 +7332,10 @@
         <v>654</v>
       </c>
       <c r="D345" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -7199,7 +7346,7 @@
         <v>647</v>
       </c>
       <c r="D346" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
@@ -7213,7 +7360,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -7224,10 +7371,10 @@
         <v>648</v>
       </c>
       <c r="D348" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -7238,10 +7385,10 @@
         <v>559</v>
       </c>
       <c r="D349" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -7252,10 +7399,10 @@
         <v>560</v>
       </c>
       <c r="D350" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -7265,8 +7412,11 @@
       <c r="C351" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D351" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -7277,10 +7427,10 @@
         <v>561</v>
       </c>
       <c r="D352" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -7288,27 +7438,27 @@
         <v>367</v>
       </c>
       <c r="C353" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D353" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" t="s">
+        <v>661</v>
+      </c>
+      <c r="C354" t="s">
         <v>662</v>
       </c>
-      <c r="C354" t="s">
-        <v>663</v>
-      </c>
       <c r="D354" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -7319,10 +7469,10 @@
         <v>562</v>
       </c>
       <c r="D355" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -7333,10 +7483,10 @@
         <v>563</v>
       </c>
       <c r="D356" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -7347,10 +7497,10 @@
         <v>564</v>
       </c>
       <c r="D357" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -7361,10 +7511,10 @@
         <v>649</v>
       </c>
       <c r="D358" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -7375,10 +7525,10 @@
         <v>565</v>
       </c>
       <c r="D359" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -7389,10 +7539,10 @@
         <v>660</v>
       </c>
       <c r="D360" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -7403,10 +7553,10 @@
         <v>566</v>
       </c>
       <c r="D361" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -7417,7 +7567,7 @@
         <v>650</v>
       </c>
       <c r="D362" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
@@ -7431,7 +7581,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -7442,21 +7592,24 @@
         <v>567</v>
       </c>
       <c r="D364" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" t="s">
         <v>285</v>
       </c>
-      <c r="C365" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C365" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="D365" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -7467,10 +7620,10 @@
         <v>568</v>
       </c>
       <c r="D366" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -7480,8 +7633,11 @@
       <c r="C367" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D367" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -7492,10 +7648,10 @@
         <v>651</v>
       </c>
       <c r="D368" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -7503,10 +7659,13 @@
         <v>391</v>
       </c>
       <c r="C369" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+      <c r="D369" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -7517,7 +7676,7 @@
         <v>655</v>
       </c>
       <c r="D370" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
@@ -7531,7 +7690,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -7542,10 +7701,10 @@
         <v>569</v>
       </c>
       <c r="D372" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -7556,10 +7715,10 @@
         <v>570</v>
       </c>
       <c r="D373" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -7570,10 +7729,10 @@
         <v>571</v>
       </c>
       <c r="D374" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -7583,8 +7742,11 @@
       <c r="C375" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D375" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -7594,8 +7756,11 @@
       <c r="C376" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D376" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -7605,8 +7770,11 @@
       <c r="C377" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D377" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -7616,8 +7784,11 @@
       <c r="C378" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D378" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -7625,10 +7796,13 @@
         <v>288</v>
       </c>
       <c r="C379" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+      <c r="D379" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -7636,10 +7810,13 @@
         <v>289</v>
       </c>
       <c r="C380" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+        <v>696</v>
+      </c>
+      <c r="D380" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -7647,10 +7824,13 @@
         <v>290</v>
       </c>
       <c r="C381" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+        <v>697</v>
+      </c>
+      <c r="D381" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -7661,10 +7841,10 @@
         <v>596</v>
       </c>
       <c r="D382" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -7673,6 +7853,9 @@
       </c>
       <c r="C383" t="s">
         <v>403</v>
+      </c>
+      <c r="D383" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
@@ -7708,7 +7891,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -7719,10 +7902,10 @@
         <v>656</v>
       </c>
       <c r="D387" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -7733,10 +7916,10 @@
         <v>573</v>
       </c>
       <c r="D388" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -7745,6 +7928,9 @@
       </c>
       <c r="C389" t="s">
         <v>660</v>
+      </c>
+      <c r="D389" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
@@ -7780,7 +7966,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -7791,10 +7977,10 @@
         <v>657</v>
       </c>
       <c r="D393" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -7805,10 +7991,10 @@
         <v>658</v>
       </c>
       <c r="D394" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -7816,13 +8002,13 @@
         <v>304</v>
       </c>
       <c r="C395" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D395" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -7833,10 +8019,10 @@
         <v>659</v>
       </c>
       <c r="D396" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -7847,10 +8033,10 @@
         <v>574</v>
       </c>
       <c r="D397" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -7860,8 +8046,11 @@
       <c r="C398" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D398" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -7872,7 +8061,7 @@
         <v>597</v>
       </c>
       <c r="D399" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
@@ -7886,7 +8075,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -7897,10 +8086,10 @@
         <v>597</v>
       </c>
       <c r="D401" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>900</v>
       </c>
@@ -7911,10 +8100,10 @@
         <v>596</v>
       </c>
       <c r="D402" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>901</v>
       </c>
@@ -7925,10 +8114,10 @@
         <v>596</v>
       </c>
       <c r="D403" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>902</v>
       </c>
@@ -7939,10 +8128,10 @@
         <v>596</v>
       </c>
       <c r="D404" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>903</v>
       </c>
@@ -7953,10 +8142,10 @@
         <v>596</v>
       </c>
       <c r="D405" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>904</v>
       </c>
@@ -7967,10 +8156,10 @@
         <v>597</v>
       </c>
       <c r="D406" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>905</v>
       </c>
@@ -7981,10 +8170,10 @@
         <v>597</v>
       </c>
       <c r="D407" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>906</v>
       </c>
@@ -7995,7 +8184,7 @@
         <v>597</v>
       </c>
       <c r="D408" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -8030,13 +8219,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B1" t="s">
         <v>664</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>665</v>
-      </c>
-      <c r="C1" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -8245,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -8509,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -8619,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -9840,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -9851,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -10071,7 +10260,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -10082,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -10291,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">

--- a/31 - Gen VIII - SWSH Collection/000 - Hunting.xlsx
+++ b/31 - Gen VIII - SWSH Collection/000 - Hunting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\RoCs-PC\31 - Gen VIII - SWSH Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="528" documentId="13_ncr:1_{C76A387B-0C5A-47D0-B3D9-5D68A762B8D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DEDE0948-31F0-4298-B5D2-7D8609E66307}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40D3B95-AB01-4373-9F40-6CB314CBD525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{317F0733-B8F8-413E-9D08-B236975643E1}"/>
+    <workbookView xWindow="38280" yWindow="2760" windowWidth="29040" windowHeight="15840" xr2:uid="{317F0733-B8F8-413E-9D08-B236975643E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Pokemon" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="714">
   <si>
     <t>Pokemon</t>
   </si>
@@ -610,9 +610,6 @@
     <t>Bisharp</t>
   </si>
   <si>
-    <t>Thorh</t>
-  </si>
-  <si>
     <t>Sawk</t>
   </si>
   <si>
@@ -2126,6 +2123,57 @@
   </si>
   <si>
     <t>Evolved (36)</t>
+  </si>
+  <si>
+    <t>Shield -&gt; Stony Wilderness [Overcast] (35%)</t>
+  </si>
+  <si>
+    <t>Shield -&gt; Giant's Mirror [Overcast] (5%)</t>
+  </si>
+  <si>
+    <t>Throh</t>
+  </si>
+  <si>
+    <t>Shield -&gt; Giant's Cap [Fog] (50%)</t>
+  </si>
+  <si>
+    <t>Shield -&gt; Dusty Bowl [Fog] (10%)</t>
+  </si>
+  <si>
+    <t>Shield -&gt; Lake of Outrage [Fog] (13%)</t>
+  </si>
+  <si>
+    <t>Shield -&gt; Dusty Bowl [Flying] (100%) | Lake of Outrage (25%)</t>
+  </si>
+  <si>
+    <t>Shield -&gt; Dusty Bowl [Fog] (35%)</t>
+  </si>
+  <si>
+    <t>Shield -&gt; Lake of Outrage [Thunderstorm] [!] (2%)</t>
+  </si>
+  <si>
+    <t>Shield -&gt; Giant's Cap</t>
+  </si>
+  <si>
+    <t>Shield -&gt; Lake of Outrage [Overcast/Sun] [!] (5%)</t>
+  </si>
+  <si>
+    <t>Shield -&gt; Dusty Bowl [Strong]</t>
+  </si>
+  <si>
+    <t>Shield -&gt; Lake of Outrage [Raining] [!] (2%)</t>
+  </si>
+  <si>
+    <t>Shield -&gt; Lake of Outrage [Sandstorm] (2%)</t>
+  </si>
+  <si>
+    <t>Shield -&gt; Evolved</t>
+  </si>
+  <si>
+    <t>Shield -&gt; Dappled Grove [Strong]</t>
+  </si>
+  <si>
+    <t>Shield -&gt; Lake of Outrage [Snowstorm] [!] (5%)</t>
   </si>
 </sst>
 </file>
@@ -2231,12 +2279,8 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A70110D2-3A9A-4AB3-B8DD-5EF3FE6692DF}" name="Table1" displayName="Table1" ref="A1:D408" totalsRowShown="0">
-  <autoFilter ref="A1:D408" xr:uid="{B8B34BC1-B866-4376-8232-AE6655C1A263}">
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D400">
+  <autoFilter ref="A1:D408" xr:uid="{B8B34BC1-B866-4376-8232-AE6655C1A263}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A267:D391">
     <sortCondition ref="C1:C408"/>
   </sortState>
   <tableColumns count="4">
@@ -2563,9 +2607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C1920C-6C06-44B6-BD24-7C088C574AB6}">
   <dimension ref="A1:K408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C271" sqref="C271"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2577,46 +2619,46 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F1" t="s">
         <v>671</v>
       </c>
-      <c r="F1" t="s">
-        <v>672</v>
-      </c>
       <c r="G1" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
@@ -2628,10 +2670,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2639,66 +2681,66 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D5" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D6" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D7" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2706,10 +2748,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2717,55 +2759,55 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C10" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D11" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D12" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D13" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2773,13 +2815,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D14" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2787,13 +2829,13 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D15" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2801,13 +2843,13 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D16" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2815,13 +2857,13 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D17" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2829,13 +2871,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D18" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2843,13 +2885,13 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D19" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2857,13 +2899,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D20" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2871,83 +2913,83 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D21" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D22" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D23" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D24" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>396</v>
+      </c>
+      <c r="C25" t="s">
         <v>397</v>
       </c>
-      <c r="C25" t="s">
-        <v>398</v>
-      </c>
       <c r="D25" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D26" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2955,13 +2997,13 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D27" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2969,13 +3011,13 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D28" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2983,108 +3025,108 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D29" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D30" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D31" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D32" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D33" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C34" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D34" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D35" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C36" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D36" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -3095,7 +3137,7 @@
         <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -3106,7 +3148,7 @@
         <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -3117,10 +3159,10 @@
         <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3128,13 +3170,13 @@
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D40" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3142,13 +3184,13 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D41" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3156,41 +3198,41 @@
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D42" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C43" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D43" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C44" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D44" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3198,13 +3240,13 @@
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D45" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3212,41 +3254,41 @@
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D46" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C47" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D47" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C48" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D48" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3254,13 +3296,13 @@
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D49" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3268,13 +3310,13 @@
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D50" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3282,13 +3324,13 @@
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D51" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3296,13 +3338,13 @@
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D52" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3310,13 +3352,13 @@
         <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D53" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3324,13 +3366,13 @@
         <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D54" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3338,13 +3380,13 @@
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D55" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3352,13 +3394,13 @@
         <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D56" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3366,13 +3408,13 @@
         <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D57" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3380,13 +3422,13 @@
         <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D58" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3394,13 +3436,13 @@
         <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D59" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3408,13 +3450,13 @@
         <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D60" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3422,13 +3464,13 @@
         <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D61" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3436,13 +3478,13 @@
         <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D62" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3450,13 +3492,13 @@
         <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D63" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3464,13 +3506,13 @@
         <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D64" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3478,13 +3520,13 @@
         <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D65" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3492,13 +3534,13 @@
         <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D66" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3506,13 +3548,13 @@
         <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D67" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3520,13 +3562,13 @@
         <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D68" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3534,13 +3576,13 @@
         <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D69" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3548,13 +3590,13 @@
         <v>41</v>
       </c>
       <c r="C70" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D70" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3562,13 +3604,13 @@
         <v>42</v>
       </c>
       <c r="C71" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D71" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3576,13 +3618,13 @@
         <v>43</v>
       </c>
       <c r="C72" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D72" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3590,13 +3632,13 @@
         <v>44</v>
       </c>
       <c r="C73" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D73" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3604,13 +3646,13 @@
         <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D74" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3618,13 +3660,13 @@
         <v>46</v>
       </c>
       <c r="C75" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D75" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3632,13 +3674,13 @@
         <v>47</v>
       </c>
       <c r="C76" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D76" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3646,13 +3688,13 @@
         <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D77" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3660,13 +3702,13 @@
         <v>49</v>
       </c>
       <c r="C78" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D78" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3674,13 +3716,13 @@
         <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D79" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3688,13 +3730,13 @@
         <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D80" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3702,13 +3744,13 @@
         <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D81" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3716,13 +3758,13 @@
         <v>53</v>
       </c>
       <c r="C82" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D82" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3730,13 +3772,13 @@
         <v>54</v>
       </c>
       <c r="C83" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D83" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3744,13 +3786,13 @@
         <v>55</v>
       </c>
       <c r="C84" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D84" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3758,13 +3800,13 @@
         <v>56</v>
       </c>
       <c r="C85" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D85" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3772,13 +3814,13 @@
         <v>57</v>
       </c>
       <c r="C86" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D86" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3786,13 +3828,13 @@
         <v>58</v>
       </c>
       <c r="C87" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D87" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3800,13 +3842,13 @@
         <v>59</v>
       </c>
       <c r="C88" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D88" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3814,13 +3856,13 @@
         <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D89" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3828,13 +3870,13 @@
         <v>61</v>
       </c>
       <c r="C90" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D90" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3842,13 +3884,13 @@
         <v>62</v>
       </c>
       <c r="C91" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D91" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3856,13 +3898,13 @@
         <v>63</v>
       </c>
       <c r="C92" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D92" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3870,13 +3912,13 @@
         <v>64</v>
       </c>
       <c r="C93" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D93" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3884,13 +3926,13 @@
         <v>65</v>
       </c>
       <c r="C94" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D94" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3898,13 +3940,13 @@
         <v>66</v>
       </c>
       <c r="C95" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D95" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3912,13 +3954,13 @@
         <v>67</v>
       </c>
       <c r="C96" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D96" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3926,13 +3968,13 @@
         <v>68</v>
       </c>
       <c r="C97" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D97" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3940,13 +3982,13 @@
         <v>69</v>
       </c>
       <c r="C98" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D98" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3954,13 +3996,13 @@
         <v>70</v>
       </c>
       <c r="C99" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D99" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3968,13 +4010,13 @@
         <v>71</v>
       </c>
       <c r="C100" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D100" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3982,13 +4024,13 @@
         <v>72</v>
       </c>
       <c r="C101" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D101" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3996,13 +4038,13 @@
         <v>73</v>
       </c>
       <c r="C102" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D102" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -4010,13 +4052,13 @@
         <v>74</v>
       </c>
       <c r="C103" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D103" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -4024,13 +4066,13 @@
         <v>75</v>
       </c>
       <c r="C104" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D104" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -4038,13 +4080,13 @@
         <v>76</v>
       </c>
       <c r="C105" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D105" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -4052,13 +4094,13 @@
         <v>77</v>
       </c>
       <c r="C106" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D106" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -4066,13 +4108,13 @@
         <v>78</v>
       </c>
       <c r="C107" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D107" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -4080,13 +4122,13 @@
         <v>79</v>
       </c>
       <c r="C108" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D108" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -4094,13 +4136,13 @@
         <v>80</v>
       </c>
       <c r="C109" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D109" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -4108,13 +4150,13 @@
         <v>81</v>
       </c>
       <c r="C110" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D110" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -4122,13 +4164,13 @@
         <v>82</v>
       </c>
       <c r="C111" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D111" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -4136,13 +4178,13 @@
         <v>83</v>
       </c>
       <c r="C112" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D112" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -4150,13 +4192,13 @@
         <v>84</v>
       </c>
       <c r="C113" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D113" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -4164,13 +4206,13 @@
         <v>85</v>
       </c>
       <c r="C114" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D114" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -4178,13 +4220,13 @@
         <v>86</v>
       </c>
       <c r="C115" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D115" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -4192,13 +4234,13 @@
         <v>87</v>
       </c>
       <c r="C116" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D116" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -4206,13 +4248,13 @@
         <v>88</v>
       </c>
       <c r="C117" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D117" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -4220,13 +4262,13 @@
         <v>89</v>
       </c>
       <c r="C118" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D118" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -4234,13 +4276,13 @@
         <v>90</v>
       </c>
       <c r="C119" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D119" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -4248,13 +4290,13 @@
         <v>91</v>
       </c>
       <c r="C120" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D120" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -4262,13 +4304,13 @@
         <v>92</v>
       </c>
       <c r="C121" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D121" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -4276,13 +4318,13 @@
         <v>93</v>
       </c>
       <c r="C122" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D122" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -4290,13 +4332,13 @@
         <v>94</v>
       </c>
       <c r="C123" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D123" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -4304,13 +4346,13 @@
         <v>95</v>
       </c>
       <c r="C124" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D124" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -4318,13 +4360,13 @@
         <v>96</v>
       </c>
       <c r="C125" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D125" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -4332,41 +4374,41 @@
         <v>97</v>
       </c>
       <c r="C126" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D126" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C127" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D127" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C128" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D128" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -4374,13 +4416,13 @@
         <v>98</v>
       </c>
       <c r="C129" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D129" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -4388,13 +4430,13 @@
         <v>99</v>
       </c>
       <c r="C130" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D130" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -4402,13 +4444,13 @@
         <v>100</v>
       </c>
       <c r="C131" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D131" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -4416,13 +4458,13 @@
         <v>101</v>
       </c>
       <c r="C132" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D132" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -4430,13 +4472,13 @@
         <v>102</v>
       </c>
       <c r="C133" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D133" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -4444,13 +4486,13 @@
         <v>103</v>
       </c>
       <c r="C134" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D134" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -4458,13 +4500,13 @@
         <v>104</v>
       </c>
       <c r="C135" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D135" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -4472,13 +4514,13 @@
         <v>105</v>
       </c>
       <c r="C136" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D136" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -4486,13 +4528,13 @@
         <v>106</v>
       </c>
       <c r="C137" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D137" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -4500,13 +4542,13 @@
         <v>107</v>
       </c>
       <c r="C138" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D138" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -4514,13 +4556,13 @@
         <v>108</v>
       </c>
       <c r="C139" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D139" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -4528,13 +4570,13 @@
         <v>109</v>
       </c>
       <c r="C140" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D140" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -4542,13 +4584,13 @@
         <v>110</v>
       </c>
       <c r="C141" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D141" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -4556,13 +4598,13 @@
         <v>111</v>
       </c>
       <c r="C142" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D142" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -4570,13 +4612,13 @@
         <v>112</v>
       </c>
       <c r="C143" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D143" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -4584,13 +4626,13 @@
         <v>113</v>
       </c>
       <c r="C144" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D144" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -4598,27 +4640,27 @@
         <v>114</v>
       </c>
       <c r="C145" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D145" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C146" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D146" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -4626,13 +4668,13 @@
         <v>115</v>
       </c>
       <c r="C147" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D147" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -4640,13 +4682,13 @@
         <v>116</v>
       </c>
       <c r="C148" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D148" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -4654,13 +4696,13 @@
         <v>117</v>
       </c>
       <c r="C149" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D149" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -4668,13 +4710,13 @@
         <v>118</v>
       </c>
       <c r="C150" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D150" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4682,13 +4724,13 @@
         <v>119</v>
       </c>
       <c r="C151" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D151" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -4696,13 +4738,13 @@
         <v>120</v>
       </c>
       <c r="C152" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D152" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -4710,10 +4752,10 @@
         <v>121</v>
       </c>
       <c r="C153" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D153" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -4721,13 +4763,13 @@
         <v>266</v>
       </c>
       <c r="B154" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C154" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4735,13 +4777,13 @@
         <v>123</v>
       </c>
       <c r="C155" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D155" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -4749,13 +4791,13 @@
         <v>124</v>
       </c>
       <c r="C156" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D156" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -4763,13 +4805,13 @@
         <v>125</v>
       </c>
       <c r="C157" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D157" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4777,13 +4819,13 @@
         <v>126</v>
       </c>
       <c r="C158" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D158" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -4791,83 +4833,83 @@
         <v>127</v>
       </c>
       <c r="C159" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D159" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C160" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D160" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C161" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D161" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C162" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D162" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C163" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D163" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C164" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D164" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4875,13 +4917,13 @@
         <v>128</v>
       </c>
       <c r="C165" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D165" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4889,13 +4931,13 @@
         <v>129</v>
       </c>
       <c r="C166" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D166" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4903,13 +4945,13 @@
         <v>130</v>
       </c>
       <c r="C167" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D167" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4917,13 +4959,13 @@
         <v>131</v>
       </c>
       <c r="C168" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D168" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4931,13 +4973,13 @@
         <v>132</v>
       </c>
       <c r="C169" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D169" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4945,10 +4987,10 @@
         <v>133</v>
       </c>
       <c r="C170" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D170" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -4956,13 +4998,13 @@
         <v>274</v>
       </c>
       <c r="B171" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C171" s="29" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4970,13 +5012,13 @@
         <v>135</v>
       </c>
       <c r="C172" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D172" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4984,13 +5026,13 @@
         <v>136</v>
       </c>
       <c r="C173" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D173" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4998,13 +5040,13 @@
         <v>137</v>
       </c>
       <c r="C174" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D174" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -5012,13 +5054,13 @@
         <v>138</v>
       </c>
       <c r="C175" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D175" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -5026,13 +5068,13 @@
         <v>139</v>
       </c>
       <c r="C176" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D176" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -5040,13 +5082,13 @@
         <v>140</v>
       </c>
       <c r="C177" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D177" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -5054,13 +5096,13 @@
         <v>141</v>
       </c>
       <c r="C178" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D178" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -5068,13 +5110,13 @@
         <v>142</v>
       </c>
       <c r="C179" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D179" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -5082,69 +5124,69 @@
         <v>143</v>
       </c>
       <c r="C180" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D180" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C181" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D181" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C182" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D182" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C183" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D183" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C184" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D184" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -5152,41 +5194,41 @@
         <v>144</v>
       </c>
       <c r="C185" s="29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D185" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C186" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D186" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C187" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D187" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -5194,13 +5236,13 @@
         <v>145</v>
       </c>
       <c r="C188" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D188" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -5208,13 +5250,13 @@
         <v>146</v>
       </c>
       <c r="C189" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D189" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -5222,13 +5264,13 @@
         <v>147</v>
       </c>
       <c r="C190" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D190" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -5236,13 +5278,13 @@
         <v>148</v>
       </c>
       <c r="C191" s="29" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D191" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -5250,13 +5292,13 @@
         <v>149</v>
       </c>
       <c r="C192" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D192" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -5264,13 +5306,13 @@
         <v>150</v>
       </c>
       <c r="C193" s="29" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D193" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -5278,13 +5320,13 @@
         <v>151</v>
       </c>
       <c r="C194" s="29" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D194" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -5292,13 +5334,13 @@
         <v>152</v>
       </c>
       <c r="C195" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D195" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -5306,13 +5348,13 @@
         <v>153</v>
       </c>
       <c r="C196" s="29" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D196" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -5320,13 +5362,13 @@
         <v>154</v>
       </c>
       <c r="C197" s="29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D197" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -5334,13 +5376,13 @@
         <v>155</v>
       </c>
       <c r="C198" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D198" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -5348,13 +5390,13 @@
         <v>156</v>
       </c>
       <c r="C199" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D199" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -5362,13 +5404,13 @@
         <v>157</v>
       </c>
       <c r="C200" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D200" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -5376,13 +5418,13 @@
         <v>158</v>
       </c>
       <c r="C201" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D201" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -5390,13 +5432,13 @@
         <v>159</v>
       </c>
       <c r="C202" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D202" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -5404,13 +5446,13 @@
         <v>160</v>
       </c>
       <c r="C203" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D203" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -5418,13 +5460,13 @@
         <v>161</v>
       </c>
       <c r="C204" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D204" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -5432,55 +5474,55 @@
         <v>162</v>
       </c>
       <c r="C205" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D205" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C206" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D206" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C207" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D207" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C208" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D208" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -5488,13 +5530,13 @@
         <v>163</v>
       </c>
       <c r="C209" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D209" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -5502,13 +5544,13 @@
         <v>164</v>
       </c>
       <c r="C210" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D210" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -5516,10 +5558,10 @@
         <v>165</v>
       </c>
       <c r="C211" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D211" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -5527,10 +5569,10 @@
         <v>276</v>
       </c>
       <c r="B212" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C212" s="29" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -5538,10 +5580,10 @@
         <v>339</v>
       </c>
       <c r="B213" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C213" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -5552,10 +5594,13 @@
         <v>12</v>
       </c>
       <c r="C214" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="D214" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -5563,13 +5608,13 @@
         <v>169</v>
       </c>
       <c r="C215" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D215" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -5577,13 +5622,13 @@
         <v>170</v>
       </c>
       <c r="C216" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D216" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -5591,13 +5636,13 @@
         <v>171</v>
       </c>
       <c r="C217" s="29" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D217" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -5605,41 +5650,41 @@
         <v>172</v>
       </c>
       <c r="C218" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D218" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C219" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D219" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C220" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D220" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -5647,13 +5692,13 @@
         <v>173</v>
       </c>
       <c r="C221" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D221" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -5661,10 +5706,10 @@
         <v>174</v>
       </c>
       <c r="C222" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D222" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -5675,7 +5720,10 @@
         <v>13</v>
       </c>
       <c r="C223" t="s">
-        <v>427</v>
+        <v>426</v>
+      </c>
+      <c r="D223" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -5686,10 +5734,13 @@
         <v>14</v>
       </c>
       <c r="C224" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+      <c r="D224" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -5697,13 +5748,13 @@
         <v>177</v>
       </c>
       <c r="C225" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D225" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -5711,27 +5762,27 @@
         <v>178</v>
       </c>
       <c r="C226" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D226" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C227" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D227" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -5739,13 +5790,13 @@
         <v>179</v>
       </c>
       <c r="C228" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D228" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -5753,13 +5804,13 @@
         <v>180</v>
       </c>
       <c r="C229" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D229" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -5767,13 +5818,13 @@
         <v>181</v>
       </c>
       <c r="C230" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D230" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -5781,13 +5832,13 @@
         <v>182</v>
       </c>
       <c r="C231" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D231" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -5795,13 +5846,13 @@
         <v>183</v>
       </c>
       <c r="C232" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D232" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -5809,13 +5860,13 @@
         <v>184</v>
       </c>
       <c r="C233" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D233" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -5823,13 +5874,13 @@
         <v>185</v>
       </c>
       <c r="C234" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D234" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -5837,13 +5888,13 @@
         <v>186</v>
       </c>
       <c r="C235" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D235" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -5851,10 +5902,10 @@
         <v>187</v>
       </c>
       <c r="C236" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D236" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -5865,7 +5916,10 @@
         <v>167</v>
       </c>
       <c r="C237" t="s">
-        <v>427</v>
+        <v>426</v>
+      </c>
+      <c r="D237" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -5876,94 +5930,94 @@
         <v>168</v>
       </c>
       <c r="C238" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C239" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D239" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C240" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D240" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C241" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D241" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C242" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D242" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C243" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D243" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C244" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D244" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -5971,13 +6025,13 @@
         <v>188</v>
       </c>
       <c r="C245" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D245" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -5985,13 +6039,13 @@
         <v>189</v>
       </c>
       <c r="C246" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D246" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -5999,13 +6053,13 @@
         <v>190</v>
       </c>
       <c r="C247" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D247" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -6013,10 +6067,10 @@
         <v>191</v>
       </c>
       <c r="C248" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D248" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -6027,320 +6081,332 @@
         <v>175</v>
       </c>
       <c r="C249" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="D249" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C250" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D250" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C251" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D251" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C252" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D252" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C253" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D253" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C254" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D254" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C255" s="29" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D255" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C256" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D256" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C257" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D257" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C258" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D258" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C259" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D259" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C260" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D260" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C261" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D261" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C262" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D262" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C263" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D263" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C264" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D264" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C265" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D265" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C266" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D266" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="B267" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="C267" s="29" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>701</v>
+      </c>
+      <c r="D267" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C268" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D268" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C269" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D269" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C270" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D270" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
+        <v>294</v>
+      </c>
+      <c r="B271" t="s">
         <v>236</v>
       </c>
-      <c r="B271" t="s">
-        <v>387</v>
-      </c>
       <c r="C271" t="s">
-        <v>427</v>
+        <v>704</v>
+      </c>
+      <c r="D271" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B272" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="C272" t="s">
-        <v>427</v>
+        <v>698</v>
+      </c>
+      <c r="D272" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -6348,24 +6414,27 @@
         <v>248</v>
       </c>
       <c r="B273" t="s">
-        <v>192</v>
+        <v>699</v>
       </c>
       <c r="C273" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="D273" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C274" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D274" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -6373,119 +6442,122 @@
         <v>270</v>
       </c>
       <c r="B275" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C275" s="29" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>700</v>
+      </c>
+      <c r="D275" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C276" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D276" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="B277" t="s">
-        <v>214</v>
+        <v>344</v>
       </c>
       <c r="C277" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C278" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D278" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C279" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D279" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C280" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D280" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C281" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D281" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C282" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D282" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C283" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D283" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -6493,10 +6565,13 @@
         <v>272</v>
       </c>
       <c r="B284" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C284" t="s">
-        <v>427</v>
+        <v>702</v>
+      </c>
+      <c r="D284" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -6504,136 +6579,139 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C285" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="D285" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C286" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D286" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C287" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D287" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C288" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D288" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C289" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D289" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C290" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D290" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C291" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D291" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C292" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D292" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C293" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D293" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C294" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D294" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -6641,553 +6719,559 @@
         <v>284</v>
       </c>
       <c r="B295" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C295" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>703</v>
+      </c>
+      <c r="D295" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C296" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D296" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C297" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D297" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C298" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D298" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C299" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D299" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C300" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D300" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C301" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D301" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C302" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D302" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C303" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D303" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C304" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D304" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C305" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D305" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C306" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D306" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C307" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D307" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C308" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D308" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C309" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D309" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C310" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D310" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C311" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D311" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C312" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D312" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C313" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D313" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C314" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D314" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C315" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D315" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C316" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D316" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C317" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D317" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C318" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D318" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C319" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D319" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C320" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D320" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C321" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D321" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C322" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D322" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C323" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D323" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C324" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D324" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C325" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D325" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C326" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D326" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C327" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D327" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C328" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D328" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C329" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D329" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C330" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D330" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C331" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D331" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C332" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D332" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C333" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D333" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="B334" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="C334" t="s">
-        <v>427</v>
+        <v>709</v>
+      </c>
+      <c r="D334" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
@@ -7195,66 +7279,69 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C335" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="D335" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C336" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D336" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C337" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D337" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C338" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D338" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C339" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D339" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -7262,38 +7349,38 @@
         <v>334</v>
       </c>
       <c r="B340" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C340" s="29" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C341" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D341" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C342" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D342" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -7301,273 +7388,276 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C343" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="D343" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C344" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D344" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" t="s">
+        <v>652</v>
+      </c>
+      <c r="C345" t="s">
         <v>653</v>
       </c>
-      <c r="C345" t="s">
-        <v>654</v>
-      </c>
       <c r="D345" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C346" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D346" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="B347" t="s">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="C347" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C348" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D348" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C349" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D349" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C350" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D350" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C351" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D351" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C352" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D352" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C353" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D353" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" t="s">
+        <v>660</v>
+      </c>
+      <c r="C354" t="s">
         <v>661</v>
       </c>
-      <c r="C354" t="s">
-        <v>662</v>
-      </c>
       <c r="D354" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C355" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D355" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C356" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D356" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C357" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D357" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C358" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D358" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C359" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D359" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C360" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D360" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C361" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D361" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C362" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D362" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
@@ -7575,287 +7665,293 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C363" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>706</v>
+      </c>
+      <c r="D363" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C364" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D364" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C365" s="29" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D365" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C366" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D366" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C367" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D367" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C368" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D368" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C369" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D369" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C370" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D370" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="B371" t="s">
-        <v>369</v>
+        <v>271</v>
       </c>
       <c r="C371" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+      <c r="D371" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C372" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D372" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C373" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D373" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C374" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D374" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C375" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D375" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C376" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D376" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C377" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D377" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C378" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D378" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C379" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D379" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C380" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D380" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C381" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D381" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C382" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D382" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C383" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D383" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
@@ -7863,10 +7959,13 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C384" t="s">
-        <v>427</v>
+        <v>707</v>
+      </c>
+      <c r="D384" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
@@ -7874,10 +7973,13 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C385" t="s">
-        <v>427</v>
+        <v>710</v>
+      </c>
+      <c r="D385" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
@@ -7885,74 +7987,83 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C386" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>708</v>
+      </c>
+      <c r="D386" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C387" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D387" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C388" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D388" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C389" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D389" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B390" t="s">
         <v>299</v>
       </c>
       <c r="C390" t="s">
-        <v>427</v>
+        <v>705</v>
+      </c>
+      <c r="D390" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
-        <v>390</v>
+        <v>223</v>
       </c>
       <c r="B391" t="s">
-        <v>300</v>
-      </c>
-      <c r="C391" t="s">
-        <v>427</v>
+        <v>176</v>
+      </c>
+      <c r="C391" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="D391" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
@@ -7960,108 +8071,108 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C392" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C393" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D393" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C394" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D394" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C395" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D395" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C396" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D396" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C397" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D397" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C398" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D398" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C399" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D399" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
@@ -8069,55 +8180,58 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C400" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="D400" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C401" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D401" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>900</v>
       </c>
       <c r="B402" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C402" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D402" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>901</v>
       </c>
       <c r="B403" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C403" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D403" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>902</v>
       </c>
@@ -8125,13 +8239,13 @@
         <v>152</v>
       </c>
       <c r="C404" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D404" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>903</v>
       </c>
@@ -8139,13 +8253,13 @@
         <v>154</v>
       </c>
       <c r="C405" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D405" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>904</v>
       </c>
@@ -8153,38 +8267,38 @@
         <v>40</v>
       </c>
       <c r="C406" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D406" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>905</v>
       </c>
       <c r="B407" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C407" s="29" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D407" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>906</v>
       </c>
       <c r="B408" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C408" s="29" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D408" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -8219,13 +8333,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B1" t="s">
         <v>663</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>664</v>
-      </c>
-      <c r="C1" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -8247,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -8434,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -8445,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -8456,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -8467,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -8478,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -8489,7 +8603,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -8511,7 +8625,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -8522,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -8533,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -8544,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -8555,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -8599,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -8665,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -8698,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -8797,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -8808,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -8951,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -8962,7 +9076,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -8973,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -9314,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -9325,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -9336,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -9347,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -9413,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -9765,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -9776,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -9787,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -9798,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -9886,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -9941,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -9952,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -9963,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -9974,7 +10088,7 @@
         <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -9985,7 +10099,7 @@
         <v>0</v>
       </c>
       <c r="C161" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -9996,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="C162" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -10007,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -10018,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -10029,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -10040,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -10161,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="C177" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -10172,7 +10286,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -10205,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="C181" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -10227,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="C183" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -10260,7 +10374,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -10271,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -10337,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -10436,7 +10550,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -10447,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -10458,7 +10572,7 @@
         <v>2</v>
       </c>
       <c r="C204" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -10469,7 +10583,7 @@
         <v>2</v>
       </c>
       <c r="C205" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -10480,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -10491,7 +10605,7 @@
         <v>2</v>
       </c>
       <c r="C207" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -10502,7 +10616,7 @@
         <v>2</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -10513,7 +10627,7 @@
         <v>0</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -10524,7 +10638,7 @@
         <v>0</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -10535,7 +10649,7 @@
         <v>0</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -10546,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -10557,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -10568,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -10579,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -10590,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -10601,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -10612,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -10623,7 +10737,7 @@
         <v>0</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -10634,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -10645,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -10656,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -10667,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -10678,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="C224" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -10689,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -10700,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -10711,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="C227" s="21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -10722,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="C228" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -10733,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="C229" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -10744,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="C230" s="24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -10755,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="C231" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -10766,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="C232" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -10777,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -10788,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="C234" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -10799,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="C235" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -10810,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -10821,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="C237" s="29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -10832,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="C238" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -10843,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="C239" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -10854,7 +10968,7 @@
         <v>0</v>
       </c>
       <c r="C240" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -10865,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="C241" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -10876,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="C242" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -10887,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="C243" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -10898,7 +11012,7 @@
         <v>0</v>
       </c>
       <c r="C244" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -10909,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="C245" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -10920,7 +11034,7 @@
         <v>2</v>
       </c>
       <c r="C246" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -10931,7 +11045,7 @@
         <v>2</v>
       </c>
       <c r="C247" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -10942,7 +11056,7 @@
         <v>2</v>
       </c>
       <c r="C248" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -10953,7 +11067,7 @@
         <v>2</v>
       </c>
       <c r="C249" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -10964,7 +11078,7 @@
         <v>2</v>
       </c>
       <c r="C250" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -10975,7 +11089,7 @@
         <v>2</v>
       </c>
       <c r="C251" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -10986,7 +11100,7 @@
         <v>2</v>
       </c>
       <c r="C252" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -10997,7 +11111,7 @@
         <v>2</v>
       </c>
       <c r="C253" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -11008,7 +11122,7 @@
         <v>2</v>
       </c>
       <c r="C254" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -11019,7 +11133,7 @@
         <v>2</v>
       </c>
       <c r="C255" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -11030,7 +11144,7 @@
         <v>2</v>
       </c>
       <c r="C256" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -11041,7 +11155,7 @@
         <v>2</v>
       </c>
       <c r="C257" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -11052,7 +11166,7 @@
         <v>2</v>
       </c>
       <c r="C258" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
